--- a/Documents/Gantt Chart 491B.xlsx
+++ b/Documents/Gantt Chart 491B.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="102">
   <si>
     <t>Create a Project Schedule in this worksheet.
 Enter title of this project in cell B1. 
@@ -29,10 +29,10 @@
     <t>Pick Up Sportz</t>
   </si>
   <si>
-    <t>SIMPLE GANTT CHART by Vertex42.com</t>
+    <t>Enter Company Name in cell B2.</t>
   </si>
   <si>
-    <t>Enter Company Name in cell B2.</t>
+    <t>SIMPLE GANTT CHART by Vertex42.com</t>
   </si>
   <si>
     <t>Product Manager:</t>
@@ -47,6 +47,9 @@
     <t>Project Start:</t>
   </si>
   <si>
+    <t>https://www.vertex42.com/ExcelTemplates/simple-gantt-chart.html</t>
+  </si>
+  <si>
     <t>The Display Week in cell E4  represents the starting week to display in the project schedule in cell I4. The project start date is considered Week 1. To change the display week, simply enter a new week number in cell E4.
 The starting date for each week, starting with the display week from cell E4, starts in cell I4 and is auto calculated. There are 8 weeks represented in this view from cell I4 through cell BF4.
 You should not modify these cells.
@@ -54,9 +57,6 @@
   </si>
   <si>
     <t>Display Week:</t>
-  </si>
-  <si>
-    <t>https://www.vertex42.com/ExcelTemplates/simple-gantt-chart.html</t>
   </si>
   <si>
     <t>About This Template</t>
@@ -88,6 +88,11 @@
     <t>More Project Management Templates</t>
   </si>
   <si>
+    <t>Cells I5 through BL5 contain the day number for the week represented in the cell block above each date cell and are auto calculated.
+You should not modify these cells.
+Today's date is outlined in Red (hex #AD3815) from today's date in row 5 through the entire date column to the end of the project schedule.</t>
+  </si>
+  <si>
     <t>Visit Vertex42.com to download other project management templates, including different types of project schedules, Gantt charts, tasks lists, etc.</t>
   </si>
   <si>
@@ -95,11 +100,6 @@
   </si>
   <si>
     <t>About Vertex42</t>
-  </si>
-  <si>
-    <t>Cells I5 through BL5 contain the day number for the week represented in the cell block above each date cell and are auto calculated.
-You should not modify these cells.
-Today's date is outlined in Red (hex #AD3815) from today's date in row 5 through the entire date column to the end of the project schedule.</t>
   </si>
   <si>
     <t>Vertex42.com provides over 300 professionally designed spreadsheet templates for business, home, and education - most of which are free to download. Their collection includes a variety of calendars, planners, and schedules as well as personal finance spreadsheets for budgeting, debt reduction, and loan amortization.</t>
@@ -331,7 +331,7 @@
     <t>Sprint 8</t>
   </si>
   <si>
-    <t>Apply ML model in either Python/Node.js</t>
+    <t>Apply ML model in either Python/Node.js and show it in UI</t>
   </si>
   <si>
     <t>Test from users perspective</t>
@@ -409,30 +409,14 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="10.0"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="14.0"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <b/>
       <u/>
       <sz val="12.0"/>
       <color rgb="FF595959"/>
     </font>
-    <font/>
     <font>
       <sz val="11.0"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -442,9 +426,25 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="10.0"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <b/>
       <sz val="10.0"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font/>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -801,7 +801,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="119">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -830,31 +830,31 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="12" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="0" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="14" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf borderId="3" fillId="0" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
@@ -871,25 +871,25 @@
     <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="5" fillId="2" fontId="8" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="2" fontId="7" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="6" fillId="0" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="0" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="2" fontId="8" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="0" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="9" fillId="2" fontId="21" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -917,90 +917,90 @@
     <xf borderId="14" fillId="4" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="14" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="14" fillId="4" fontId="7" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="14" fillId="4" fontId="8" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="14" fillId="4" fontId="7" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="14" fillId="4" fontId="8" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="15" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="15" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="16" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="16" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="14" fillId="5" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="14" fillId="5" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="14" fillId="5" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="5" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="14" fillId="5" fontId="7" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="14" fillId="5" fontId="8" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="14" fillId="5" fontId="12" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="14" fillId="5" fontId="14" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="16" fillId="6" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="17" fillId="6" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="16" fillId="6" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="17" fillId="6" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="16" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="16" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="16" fillId="7" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="16" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="16" fillId="7" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf borderId="16" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="16" fillId="6" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="14" fillId="8" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="14" fillId="8" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="8" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="14" fillId="8" fontId="7" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="14" fillId="8" fontId="8" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="14" fillId="8" fontId="7" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="14" fillId="8" fontId="8" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="14" fillId="9" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="14" fillId="9" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="14" fillId="9" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="9" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="14" fillId="9" fontId="7" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="14" fillId="9" fontId="8" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="14" fillId="9" fontId="12" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="14" fillId="9" fontId="14" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="7" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="9" fontId="8" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="12" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="9" fontId="14" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="18" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="17" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="17" fillId="7" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="19" fillId="7" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="18" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="17" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="17" fillId="7" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="19" fillId="7" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="10" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -1010,83 +1010,83 @@
     <xf borderId="0" fillId="10" fontId="28" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="12" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="10" fontId="14" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="10" fontId="28" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="16" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="16" fillId="6" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="17" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="17" fillId="6" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="16" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="16" fillId="6" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="17" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="17" fillId="6" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="17" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="17" fillId="7" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="16" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="16" fillId="7" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="11" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="11" fontId="28" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="11" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="11" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="16" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="17" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="16" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="17" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="11" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="11" fontId="28" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="11" fontId="12" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="11" fontId="14" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="11" fontId="28" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="20" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="20" fillId="7" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="21" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="20" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="21" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="20" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="11" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="11" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="11" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="11" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="11" fontId="7" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="11" fontId="8" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="11" fontId="12" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="11" fontId="14" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="22" fillId="11" fontId="7" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="22" fillId="11" fontId="8" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="19" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="17" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="19" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="17" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="12" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="12" fontId="28" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="12" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="12" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="12" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1098,17 +1098,20 @@
     <xf borderId="0" fillId="12" fontId="28" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="12" fontId="12" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="12" fontId="14" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="12" fontId="28" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="12" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="12" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="12" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="12" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="19" fillId="6" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1403,42 +1406,42 @@
     </row>
     <row r="2" ht="30.0" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="I2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="I2" s="14"/>
     </row>
     <row r="3" ht="30.0" customHeight="1">
       <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="17">
+      <c r="D3" s="18"/>
+      <c r="E3" s="19">
         <v>43887.0</v>
       </c>
-      <c r="F3" s="18"/>
+      <c r="F3" s="20"/>
     </row>
     <row r="4" ht="30.0" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="16"/>
+      <c r="C4" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="18"/>
       <c r="E4" s="27">
         <v>8.0</v>
       </c>
-      <c r="I4" s="29">
+      <c r="I4" s="28">
         <f>I5</f>
         <v>43934</v>
       </c>
@@ -1448,7 +1451,7 @@
       <c r="M4" s="30"/>
       <c r="N4" s="30"/>
       <c r="O4" s="31"/>
-      <c r="P4" s="29">
+      <c r="P4" s="28">
         <f>P5</f>
         <v>43941</v>
       </c>
@@ -1458,7 +1461,7 @@
       <c r="T4" s="30"/>
       <c r="U4" s="30"/>
       <c r="V4" s="31"/>
-      <c r="W4" s="29">
+      <c r="W4" s="28">
         <f>W5</f>
         <v>43948</v>
       </c>
@@ -1468,7 +1471,7 @@
       <c r="AA4" s="30"/>
       <c r="AB4" s="30"/>
       <c r="AC4" s="31"/>
-      <c r="AD4" s="29">
+      <c r="AD4" s="28">
         <f>AD5</f>
         <v>43955</v>
       </c>
@@ -1478,7 +1481,7 @@
       <c r="AH4" s="30"/>
       <c r="AI4" s="30"/>
       <c r="AJ4" s="31"/>
-      <c r="AK4" s="29">
+      <c r="AK4" s="28">
         <f>AK5</f>
         <v>43962</v>
       </c>
@@ -1488,7 +1491,7 @@
       <c r="AO4" s="30"/>
       <c r="AP4" s="30"/>
       <c r="AQ4" s="31"/>
-      <c r="AR4" s="29">
+      <c r="AR4" s="28">
         <f>AR5</f>
         <v>43969</v>
       </c>
@@ -1498,7 +1501,7 @@
       <c r="AV4" s="30"/>
       <c r="AW4" s="30"/>
       <c r="AX4" s="31"/>
-      <c r="AY4" s="29">
+      <c r="AY4" s="28">
         <f>AY5</f>
         <v>43976</v>
       </c>
@@ -1508,7 +1511,7 @@
       <c r="BC4" s="30"/>
       <c r="BD4" s="30"/>
       <c r="BE4" s="31"/>
-      <c r="BF4" s="29">
+      <c r="BF4" s="28">
         <f>BF5</f>
         <v>43983</v>
       </c>
@@ -1539,7 +1542,7 @@
     </row>
     <row r="5" ht="15.0" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B5" s="34"/>
       <c r="C5" s="35"/>
@@ -5019,7 +5022,7 @@
         <v>65</v>
       </c>
       <c r="D53" s="113">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E53" s="114">
         <v>43936.0</v>
@@ -5031,16 +5034,16 @@
       <c r="H53" s="49"/>
       <c r="I53" s="49"/>
       <c r="J53" s="49"/>
-      <c r="K53" s="97"/>
-      <c r="L53" s="97"/>
-      <c r="M53" s="97"/>
-      <c r="N53" s="97"/>
-      <c r="O53" s="97"/>
-      <c r="P53" s="97"/>
-      <c r="Q53" s="97"/>
-      <c r="R53" s="97"/>
-      <c r="S53" s="97"/>
-      <c r="T53" s="97"/>
+      <c r="K53" s="85"/>
+      <c r="L53" s="85"/>
+      <c r="M53" s="85"/>
+      <c r="N53" s="85"/>
+      <c r="O53" s="85"/>
+      <c r="P53" s="85"/>
+      <c r="Q53" s="85"/>
+      <c r="R53" s="85"/>
+      <c r="S53" s="82"/>
+      <c r="T53" s="83"/>
       <c r="U53" s="97"/>
       <c r="V53" s="97"/>
       <c r="W53" s="97"/>
@@ -5113,7 +5116,7 @@
         <v>65</v>
       </c>
       <c r="D54" s="113">
-        <v>0.0</v>
+        <v>0.8</v>
       </c>
       <c r="E54" s="114">
         <v>43936.0</v>
@@ -5128,16 +5131,16 @@
       <c r="K54" s="97"/>
       <c r="L54" s="97"/>
       <c r="M54" s="97"/>
-      <c r="N54" s="97"/>
-      <c r="O54" s="97"/>
-      <c r="P54" s="97"/>
-      <c r="Q54" s="97"/>
-      <c r="R54" s="97"/>
-      <c r="S54" s="97"/>
-      <c r="T54" s="97"/>
-      <c r="U54" s="97"/>
-      <c r="V54" s="97"/>
-      <c r="W54" s="97"/>
+      <c r="N54" s="85"/>
+      <c r="O54" s="85"/>
+      <c r="P54" s="85"/>
+      <c r="Q54" s="85"/>
+      <c r="R54" s="85"/>
+      <c r="S54" s="85"/>
+      <c r="T54" s="85"/>
+      <c r="U54" s="85"/>
+      <c r="V54" s="82"/>
+      <c r="W54" s="83"/>
       <c r="X54" s="97"/>
       <c r="Y54" s="97"/>
       <c r="Z54" s="97"/>
@@ -5207,7 +5210,7 @@
         <v>77</v>
       </c>
       <c r="D55" s="113">
-        <v>0.0</v>
+        <v>0.5</v>
       </c>
       <c r="E55" s="114">
         <v>43936.0</v>
@@ -5236,9 +5239,9 @@
       <c r="Y55" s="97"/>
       <c r="Z55" s="97"/>
       <c r="AA55" s="97"/>
-      <c r="AB55" s="97"/>
-      <c r="AC55" s="97"/>
-      <c r="AD55" s="97"/>
+      <c r="AB55" s="85"/>
+      <c r="AC55" s="82"/>
+      <c r="AD55" s="83"/>
       <c r="AE55" s="49"/>
       <c r="AF55" s="49"/>
       <c r="AG55" s="49"/>
@@ -5301,7 +5304,7 @@
         <v>96</v>
       </c>
       <c r="D56" s="113">
-        <v>0.0</v>
+        <v>0.9</v>
       </c>
       <c r="E56" s="114">
         <v>43936.0</v>
@@ -5313,16 +5316,16 @@
       <c r="H56" s="74"/>
       <c r="I56" s="74"/>
       <c r="J56" s="74"/>
-      <c r="K56" s="97"/>
-      <c r="L56" s="97"/>
-      <c r="M56" s="97"/>
-      <c r="N56" s="97"/>
-      <c r="O56" s="97"/>
-      <c r="P56" s="97"/>
-      <c r="Q56" s="97"/>
-      <c r="R56" s="97"/>
-      <c r="S56" s="97"/>
-      <c r="T56" s="97"/>
+      <c r="K56" s="85"/>
+      <c r="L56" s="85"/>
+      <c r="M56" s="85"/>
+      <c r="N56" s="85"/>
+      <c r="O56" s="85"/>
+      <c r="P56" s="85"/>
+      <c r="Q56" s="85"/>
+      <c r="R56" s="85"/>
+      <c r="S56" s="82"/>
+      <c r="T56" s="83"/>
       <c r="U56" s="97"/>
       <c r="V56" s="97"/>
       <c r="W56" s="97"/>
@@ -5345,8 +5348,8 @@
       <c r="AN56" s="74"/>
       <c r="AO56" s="74"/>
       <c r="AP56" s="74"/>
-      <c r="AQ56" s="106"/>
-      <c r="AR56" s="106"/>
+      <c r="AQ56" s="107"/>
+      <c r="AR56" s="107"/>
       <c r="AS56" s="107"/>
       <c r="AT56" s="107"/>
       <c r="AU56" s="107"/>
@@ -5395,7 +5398,7 @@
         <v>96</v>
       </c>
       <c r="D57" s="113">
-        <v>0.0</v>
+        <v>0.9</v>
       </c>
       <c r="E57" s="114">
         <v>43936.0</v>
@@ -5413,16 +5416,16 @@
       <c r="N57" s="97"/>
       <c r="O57" s="97"/>
       <c r="P57" s="97"/>
-      <c r="Q57" s="97"/>
-      <c r="R57" s="97"/>
-      <c r="S57" s="97"/>
-      <c r="T57" s="97"/>
-      <c r="U57" s="97"/>
-      <c r="V57" s="97"/>
-      <c r="W57" s="97"/>
-      <c r="X57" s="97"/>
-      <c r="Y57" s="97"/>
-      <c r="Z57" s="97"/>
+      <c r="Q57" s="82"/>
+      <c r="R57" s="83"/>
+      <c r="S57" s="83"/>
+      <c r="T57" s="83"/>
+      <c r="U57" s="83"/>
+      <c r="V57" s="83"/>
+      <c r="W57" s="83"/>
+      <c r="X57" s="83"/>
+      <c r="Y57" s="83"/>
+      <c r="Z57" s="83"/>
       <c r="AA57" s="97"/>
       <c r="AB57" s="97"/>
       <c r="AC57" s="97"/>
@@ -5489,7 +5492,7 @@
         <v>77</v>
       </c>
       <c r="D58" s="113">
-        <v>0.0</v>
+        <v>0.5</v>
       </c>
       <c r="E58" s="114">
         <v>43936.0</v>
@@ -5518,9 +5521,9 @@
       <c r="Y58" s="97"/>
       <c r="Z58" s="97"/>
       <c r="AA58" s="97"/>
-      <c r="AB58" s="97"/>
-      <c r="AC58" s="97"/>
-      <c r="AD58" s="97"/>
+      <c r="AB58" s="83"/>
+      <c r="AC58" s="83"/>
+      <c r="AD58" s="83"/>
       <c r="AE58" s="49"/>
       <c r="AF58" s="49"/>
       <c r="AG58" s="49"/>
@@ -5583,7 +5586,7 @@
         <v>74</v>
       </c>
       <c r="D59" s="113">
-        <v>0.0</v>
+        <v>0.9</v>
       </c>
       <c r="E59" s="114">
         <v>43936.0</v>
@@ -5605,16 +5608,16 @@
       <c r="R59" s="97"/>
       <c r="S59" s="97"/>
       <c r="T59" s="97"/>
-      <c r="U59" s="97"/>
-      <c r="V59" s="97"/>
-      <c r="W59" s="97"/>
-      <c r="X59" s="97"/>
-      <c r="Y59" s="97"/>
-      <c r="Z59" s="97"/>
-      <c r="AA59" s="97"/>
-      <c r="AB59" s="97"/>
-      <c r="AC59" s="97"/>
-      <c r="AD59" s="97"/>
+      <c r="U59" s="82"/>
+      <c r="V59" s="83"/>
+      <c r="W59" s="83"/>
+      <c r="X59" s="83"/>
+      <c r="Y59" s="83"/>
+      <c r="Z59" s="83"/>
+      <c r="AA59" s="83"/>
+      <c r="AB59" s="83"/>
+      <c r="AC59" s="83"/>
+      <c r="AD59" s="83"/>
       <c r="AE59" s="49"/>
       <c r="AF59" s="49"/>
       <c r="AG59" s="49"/>
@@ -5677,7 +5680,7 @@
         <v>74</v>
       </c>
       <c r="D60" s="113">
-        <v>0.0</v>
+        <v>0.85</v>
       </c>
       <c r="E60" s="114">
         <v>43936.0</v>
@@ -5699,16 +5702,16 @@
       <c r="R60" s="97"/>
       <c r="S60" s="97"/>
       <c r="T60" s="97"/>
-      <c r="U60" s="97"/>
-      <c r="V60" s="97"/>
-      <c r="W60" s="97"/>
-      <c r="X60" s="97"/>
-      <c r="Y60" s="97"/>
-      <c r="Z60" s="97"/>
-      <c r="AA60" s="97"/>
-      <c r="AB60" s="97"/>
-      <c r="AC60" s="97"/>
-      <c r="AD60" s="97"/>
+      <c r="U60" s="82"/>
+      <c r="V60" s="83"/>
+      <c r="W60" s="83"/>
+      <c r="X60" s="83"/>
+      <c r="Y60" s="83"/>
+      <c r="Z60" s="83"/>
+      <c r="AA60" s="83"/>
+      <c r="AB60" s="83"/>
+      <c r="AC60" s="83"/>
+      <c r="AD60" s="83"/>
       <c r="AE60" s="49"/>
       <c r="AF60" s="49"/>
       <c r="AG60" s="49"/>
@@ -5763,15 +5766,15 @@
       <c r="CD60" s="99"/>
     </row>
     <row r="61" ht="30.0" customHeight="1">
-      <c r="A61" s="100"/>
-      <c r="B61" s="116" t="s">
-        <v>86</v>
-      </c>
-      <c r="C61" s="117" t="s">
-        <v>65</v>
+      <c r="A61" s="9"/>
+      <c r="B61" s="111" t="s">
+        <v>101</v>
+      </c>
+      <c r="C61" s="112" t="s">
+        <v>96</v>
       </c>
       <c r="D61" s="113">
-        <v>0.0</v>
+        <v>0.75</v>
       </c>
       <c r="E61" s="114">
         <v>43936.0</v>
@@ -5779,10 +5782,10 @@
       <c r="F61" s="115">
         <v>43955.0</v>
       </c>
-      <c r="G61" s="74"/>
-      <c r="H61" s="74"/>
-      <c r="I61" s="74"/>
-      <c r="J61" s="74"/>
+      <c r="G61" s="49"/>
+      <c r="H61" s="49"/>
+      <c r="I61" s="49"/>
+      <c r="J61" s="49"/>
       <c r="K61" s="97"/>
       <c r="L61" s="97"/>
       <c r="M61" s="97"/>
@@ -5790,3893 +5793,3799 @@
       <c r="O61" s="97"/>
       <c r="P61" s="97"/>
       <c r="Q61" s="97"/>
-      <c r="R61" s="97"/>
-      <c r="S61" s="97"/>
-      <c r="T61" s="97"/>
-      <c r="U61" s="97"/>
-      <c r="V61" s="97"/>
-      <c r="W61" s="97"/>
-      <c r="X61" s="97"/>
-      <c r="Y61" s="97"/>
-      <c r="Z61" s="97"/>
-      <c r="AA61" s="97"/>
-      <c r="AB61" s="97"/>
-      <c r="AC61" s="97"/>
-      <c r="AD61" s="97"/>
+      <c r="R61" s="82"/>
+      <c r="S61" s="83"/>
+      <c r="T61" s="83"/>
+      <c r="U61" s="83"/>
+      <c r="V61" s="83"/>
+      <c r="W61" s="83"/>
+      <c r="X61" s="83"/>
+      <c r="Y61" s="82"/>
+      <c r="Z61" s="83"/>
+      <c r="AA61" s="83"/>
+      <c r="AB61" s="118"/>
+      <c r="AC61" s="118"/>
+      <c r="AD61" s="83"/>
       <c r="AE61" s="49"/>
       <c r="AF61" s="49"/>
       <c r="AG61" s="49"/>
       <c r="AH61" s="49"/>
       <c r="AI61" s="49"/>
-      <c r="AJ61" s="74"/>
-      <c r="AK61" s="74"/>
-      <c r="AL61" s="74"/>
-      <c r="AM61" s="74"/>
-      <c r="AN61" s="74"/>
-      <c r="AO61" s="74"/>
-      <c r="AP61" s="74"/>
-      <c r="AQ61" s="106"/>
-      <c r="AR61" s="106"/>
-      <c r="AS61" s="107"/>
-      <c r="AT61" s="107"/>
-      <c r="AU61" s="107"/>
-      <c r="AV61" s="107"/>
-      <c r="AW61" s="107"/>
-      <c r="AX61" s="107"/>
-      <c r="AY61" s="107"/>
-      <c r="AZ61" s="107"/>
-      <c r="BA61" s="107"/>
-      <c r="BB61" s="107"/>
-      <c r="BC61" s="107"/>
-      <c r="BD61" s="107"/>
-      <c r="BE61" s="107"/>
-      <c r="BF61" s="107"/>
-      <c r="BG61" s="107"/>
-      <c r="BH61" s="107"/>
-      <c r="BI61" s="107"/>
-      <c r="BJ61" s="107"/>
-      <c r="BK61" s="107"/>
-      <c r="BL61" s="107"/>
-      <c r="BM61" s="107"/>
-      <c r="BN61" s="107"/>
-      <c r="BO61" s="107"/>
-      <c r="BP61" s="107"/>
-      <c r="BQ61" s="107"/>
-      <c r="BR61" s="107"/>
-      <c r="BS61" s="107"/>
-      <c r="BT61" s="107"/>
-      <c r="BU61" s="107"/>
-      <c r="BV61" s="107"/>
-      <c r="BW61" s="107"/>
-      <c r="BX61" s="107"/>
-      <c r="BY61" s="107"/>
-      <c r="BZ61" s="107"/>
-      <c r="CA61" s="107"/>
-      <c r="CB61" s="107"/>
-      <c r="CC61" s="107"/>
-      <c r="CD61" s="107"/>
+      <c r="AJ61" s="49"/>
+      <c r="AK61" s="49"/>
+      <c r="AL61" s="49"/>
+      <c r="AM61" s="49"/>
+      <c r="AN61" s="49"/>
+      <c r="AO61" s="49"/>
+      <c r="AP61" s="49"/>
+      <c r="AQ61" s="49"/>
+      <c r="AR61" s="49"/>
+      <c r="AS61" s="98"/>
+      <c r="AT61" s="99"/>
+      <c r="AU61" s="99"/>
+      <c r="AV61" s="99"/>
+      <c r="AW61" s="99"/>
+      <c r="AX61" s="99"/>
+      <c r="AY61" s="99"/>
+      <c r="AZ61" s="99"/>
+      <c r="BA61" s="99"/>
+      <c r="BB61" s="99"/>
+      <c r="BC61" s="99"/>
+      <c r="BD61" s="99"/>
+      <c r="BE61" s="99"/>
+      <c r="BF61" s="99"/>
+      <c r="BG61" s="99"/>
+      <c r="BH61" s="99"/>
+      <c r="BI61" s="99"/>
+      <c r="BJ61" s="99"/>
+      <c r="BK61" s="99"/>
+      <c r="BL61" s="99"/>
+      <c r="BM61" s="99"/>
+      <c r="BN61" s="99"/>
+      <c r="BO61" s="99"/>
+      <c r="BP61" s="99"/>
+      <c r="BQ61" s="99"/>
+      <c r="BR61" s="99"/>
+      <c r="BS61" s="99"/>
+      <c r="BT61" s="99"/>
+      <c r="BU61" s="99"/>
+      <c r="BV61" s="99"/>
+      <c r="BW61" s="99"/>
+      <c r="BX61" s="99"/>
+      <c r="BY61" s="99"/>
+      <c r="BZ61" s="99"/>
+      <c r="CA61" s="99"/>
+      <c r="CB61" s="99"/>
+      <c r="CC61" s="99"/>
+      <c r="CD61" s="99"/>
     </row>
     <row r="62" ht="30.0" customHeight="1">
       <c r="A62" s="9"/>
-      <c r="B62" s="111" t="s">
-        <v>101</v>
-      </c>
-      <c r="C62" s="112" t="s">
-        <v>96</v>
-      </c>
-      <c r="D62" s="113">
-        <v>0.0</v>
-      </c>
-      <c r="E62" s="114">
-        <v>43936.0</v>
-      </c>
-      <c r="F62" s="115">
-        <v>43955.0</v>
-      </c>
-      <c r="G62" s="49"/>
-      <c r="H62" s="49"/>
-      <c r="I62" s="49"/>
-      <c r="J62" s="49"/>
-      <c r="K62" s="97"/>
-      <c r="L62" s="97"/>
-      <c r="M62" s="97"/>
-      <c r="N62" s="97"/>
-      <c r="O62" s="97"/>
-      <c r="P62" s="97"/>
-      <c r="Q62" s="97"/>
-      <c r="R62" s="97"/>
-      <c r="S62" s="97"/>
-      <c r="T62" s="97"/>
-      <c r="U62" s="97"/>
-      <c r="V62" s="97"/>
-      <c r="W62" s="97"/>
-      <c r="X62" s="97"/>
-      <c r="Y62" s="97"/>
-      <c r="Z62" s="97"/>
-      <c r="AA62" s="97"/>
-      <c r="AB62" s="97"/>
-      <c r="AC62" s="97"/>
-      <c r="AD62" s="97"/>
-      <c r="AE62" s="49"/>
-      <c r="AF62" s="49"/>
-      <c r="AG62" s="49"/>
-      <c r="AH62" s="49"/>
-      <c r="AI62" s="49"/>
-      <c r="AJ62" s="49"/>
-      <c r="AK62" s="49"/>
-      <c r="AL62" s="49"/>
-      <c r="AM62" s="49"/>
-      <c r="AN62" s="49"/>
-      <c r="AO62" s="49"/>
-      <c r="AP62" s="49"/>
-      <c r="AQ62" s="49"/>
-      <c r="AR62" s="49"/>
-      <c r="AS62" s="98"/>
-      <c r="AT62" s="99"/>
-      <c r="AU62" s="99"/>
-      <c r="AV62" s="99"/>
-      <c r="AW62" s="99"/>
-      <c r="AX62" s="99"/>
-      <c r="AY62" s="99"/>
-      <c r="AZ62" s="99"/>
-      <c r="BA62" s="99"/>
-      <c r="BB62" s="99"/>
-      <c r="BC62" s="99"/>
-      <c r="BD62" s="99"/>
-      <c r="BE62" s="99"/>
-      <c r="BF62" s="99"/>
-      <c r="BG62" s="99"/>
-      <c r="BH62" s="99"/>
-      <c r="BI62" s="99"/>
-      <c r="BJ62" s="99"/>
-      <c r="BK62" s="99"/>
-      <c r="BL62" s="99"/>
-      <c r="BM62" s="99"/>
-      <c r="BN62" s="99"/>
-      <c r="BO62" s="99"/>
-      <c r="BP62" s="99"/>
-      <c r="BQ62" s="99"/>
-      <c r="BR62" s="99"/>
-      <c r="BS62" s="99"/>
-      <c r="BT62" s="99"/>
-      <c r="BU62" s="99"/>
-      <c r="BV62" s="99"/>
-      <c r="BW62" s="99"/>
-      <c r="BX62" s="99"/>
-      <c r="BY62" s="99"/>
-      <c r="BZ62" s="99"/>
-      <c r="CA62" s="99"/>
-      <c r="CB62" s="99"/>
-      <c r="CC62" s="99"/>
-      <c r="CD62" s="99"/>
+      <c r="E62" s="12"/>
     </row>
     <row r="63" ht="30.0" customHeight="1">
       <c r="A63" s="9"/>
-      <c r="E63" s="11"/>
+      <c r="E63" s="12"/>
     </row>
     <row r="64" ht="30.0" customHeight="1">
       <c r="A64" s="9"/>
-      <c r="E64" s="11"/>
+      <c r="E64" s="12"/>
     </row>
     <row r="65" ht="30.0" customHeight="1">
       <c r="A65" s="9"/>
-      <c r="E65" s="11"/>
+      <c r="E65" s="12"/>
     </row>
     <row r="66" ht="30.0" customHeight="1">
       <c r="A66" s="9"/>
-      <c r="E66" s="11"/>
+      <c r="E66" s="12"/>
     </row>
     <row r="67" ht="30.0" customHeight="1">
       <c r="A67" s="9"/>
-      <c r="E67" s="11"/>
+      <c r="E67" s="12"/>
     </row>
     <row r="68" ht="30.0" customHeight="1">
       <c r="A68" s="9"/>
-      <c r="E68" s="11"/>
+      <c r="E68" s="12"/>
     </row>
     <row r="69" ht="30.0" customHeight="1">
       <c r="A69" s="9"/>
-      <c r="E69" s="11"/>
+      <c r="E69" s="12"/>
     </row>
     <row r="70" ht="30.0" customHeight="1">
       <c r="A70" s="9"/>
-      <c r="E70" s="11"/>
+      <c r="E70" s="12"/>
     </row>
     <row r="71" ht="30.0" customHeight="1">
       <c r="A71" s="9"/>
-      <c r="E71" s="11"/>
+      <c r="E71" s="12"/>
     </row>
     <row r="72" ht="30.0" customHeight="1">
       <c r="A72" s="9"/>
-      <c r="E72" s="11"/>
+      <c r="E72" s="12"/>
     </row>
     <row r="73" ht="30.0" customHeight="1">
       <c r="A73" s="9"/>
-      <c r="E73" s="11"/>
+      <c r="E73" s="12"/>
     </row>
     <row r="74" ht="30.0" customHeight="1">
       <c r="A74" s="9"/>
-      <c r="E74" s="11"/>
+      <c r="E74" s="12"/>
     </row>
     <row r="75" ht="30.0" customHeight="1">
       <c r="A75" s="9"/>
-      <c r="E75" s="11"/>
+      <c r="E75" s="12"/>
     </row>
     <row r="76" ht="30.0" customHeight="1">
       <c r="A76" s="9"/>
-      <c r="E76" s="11"/>
+      <c r="E76" s="12"/>
     </row>
     <row r="77" ht="30.0" customHeight="1">
       <c r="A77" s="9"/>
-      <c r="E77" s="11"/>
+      <c r="E77" s="12"/>
     </row>
     <row r="78" ht="30.0" customHeight="1">
       <c r="A78" s="9"/>
-      <c r="E78" s="11"/>
+      <c r="E78" s="12"/>
     </row>
     <row r="79" ht="30.0" customHeight="1">
       <c r="A79" s="9"/>
-      <c r="E79" s="11"/>
+      <c r="E79" s="12"/>
     </row>
     <row r="80" ht="30.0" customHeight="1">
       <c r="A80" s="9"/>
-      <c r="E80" s="11"/>
+      <c r="E80" s="12"/>
     </row>
     <row r="81" ht="30.0" customHeight="1">
       <c r="A81" s="9"/>
-      <c r="E81" s="11"/>
+      <c r="E81" s="12"/>
     </row>
     <row r="82" ht="30.0" customHeight="1">
       <c r="A82" s="9"/>
-      <c r="E82" s="11"/>
+      <c r="E82" s="12"/>
     </row>
     <row r="83" ht="30.0" customHeight="1">
       <c r="A83" s="9"/>
-      <c r="E83" s="11"/>
+      <c r="E83" s="12"/>
     </row>
     <row r="84" ht="30.0" customHeight="1">
       <c r="A84" s="9"/>
-      <c r="E84" s="11"/>
+      <c r="E84" s="12"/>
     </row>
     <row r="85" ht="30.0" customHeight="1">
       <c r="A85" s="9"/>
-      <c r="E85" s="11"/>
+      <c r="E85" s="12"/>
     </row>
     <row r="86" ht="30.0" customHeight="1">
       <c r="A86" s="9"/>
-      <c r="E86" s="11"/>
+      <c r="E86" s="12"/>
     </row>
     <row r="87" ht="30.0" customHeight="1">
       <c r="A87" s="9"/>
-      <c r="E87" s="11"/>
+      <c r="E87" s="12"/>
     </row>
     <row r="88" ht="30.0" customHeight="1">
       <c r="A88" s="9"/>
-      <c r="E88" s="11"/>
+      <c r="E88" s="12"/>
     </row>
     <row r="89" ht="30.0" customHeight="1">
       <c r="A89" s="9"/>
-      <c r="E89" s="11"/>
+      <c r="E89" s="12"/>
     </row>
     <row r="90" ht="30.0" customHeight="1">
       <c r="A90" s="9"/>
-      <c r="E90" s="11"/>
+      <c r="E90" s="12"/>
     </row>
     <row r="91" ht="30.0" customHeight="1">
       <c r="A91" s="9"/>
-      <c r="E91" s="11"/>
+      <c r="E91" s="12"/>
     </row>
     <row r="92" ht="30.0" customHeight="1">
       <c r="A92" s="9"/>
-      <c r="E92" s="11"/>
+      <c r="E92" s="12"/>
     </row>
     <row r="93" ht="30.0" customHeight="1">
       <c r="A93" s="9"/>
-      <c r="E93" s="11"/>
+      <c r="E93" s="12"/>
     </row>
     <row r="94" ht="30.0" customHeight="1">
       <c r="A94" s="9"/>
-      <c r="E94" s="11"/>
+      <c r="E94" s="12"/>
     </row>
     <row r="95" ht="30.0" customHeight="1">
       <c r="A95" s="9"/>
-      <c r="E95" s="11"/>
+      <c r="E95" s="12"/>
     </row>
     <row r="96" ht="30.0" customHeight="1">
       <c r="A96" s="9"/>
-      <c r="E96" s="11"/>
+      <c r="E96" s="12"/>
     </row>
     <row r="97" ht="30.0" customHeight="1">
       <c r="A97" s="9"/>
-      <c r="E97" s="11"/>
+      <c r="E97" s="12"/>
     </row>
     <row r="98" ht="30.0" customHeight="1">
       <c r="A98" s="9"/>
-      <c r="E98" s="11"/>
+      <c r="E98" s="12"/>
     </row>
     <row r="99" ht="30.0" customHeight="1">
       <c r="A99" s="9"/>
-      <c r="E99" s="11"/>
+      <c r="E99" s="12"/>
     </row>
     <row r="100" ht="30.0" customHeight="1">
       <c r="A100" s="9"/>
-      <c r="E100" s="11"/>
+      <c r="E100" s="12"/>
     </row>
     <row r="101" ht="30.0" customHeight="1">
       <c r="A101" s="9"/>
-      <c r="E101" s="11"/>
+      <c r="E101" s="12"/>
     </row>
     <row r="102" ht="30.0" customHeight="1">
       <c r="A102" s="9"/>
-      <c r="E102" s="11"/>
+      <c r="E102" s="12"/>
     </row>
     <row r="103" ht="30.0" customHeight="1">
       <c r="A103" s="9"/>
-      <c r="E103" s="11"/>
+      <c r="E103" s="12"/>
     </row>
     <row r="104" ht="30.0" customHeight="1">
       <c r="A104" s="9"/>
-      <c r="E104" s="11"/>
+      <c r="E104" s="12"/>
     </row>
     <row r="105" ht="30.0" customHeight="1">
       <c r="A105" s="9"/>
-      <c r="E105" s="11"/>
+      <c r="E105" s="12"/>
     </row>
     <row r="106" ht="30.0" customHeight="1">
       <c r="A106" s="9"/>
-      <c r="E106" s="11"/>
+      <c r="E106" s="12"/>
     </row>
     <row r="107" ht="30.0" customHeight="1">
       <c r="A107" s="9"/>
-      <c r="E107" s="11"/>
+      <c r="E107" s="12"/>
     </row>
     <row r="108" ht="30.0" customHeight="1">
       <c r="A108" s="9"/>
-      <c r="E108" s="11"/>
+      <c r="E108" s="12"/>
     </row>
     <row r="109" ht="30.0" customHeight="1">
       <c r="A109" s="9"/>
-      <c r="E109" s="11"/>
+      <c r="E109" s="12"/>
     </row>
     <row r="110" ht="30.0" customHeight="1">
       <c r="A110" s="9"/>
-      <c r="E110" s="11"/>
+      <c r="E110" s="12"/>
     </row>
     <row r="111" ht="30.0" customHeight="1">
       <c r="A111" s="9"/>
-      <c r="E111" s="11"/>
+      <c r="E111" s="12"/>
     </row>
     <row r="112" ht="30.0" customHeight="1">
       <c r="A112" s="9"/>
-      <c r="E112" s="11"/>
+      <c r="E112" s="12"/>
     </row>
     <row r="113" ht="30.0" customHeight="1">
       <c r="A113" s="9"/>
-      <c r="E113" s="11"/>
+      <c r="E113" s="12"/>
     </row>
     <row r="114" ht="30.0" customHeight="1">
       <c r="A114" s="9"/>
-      <c r="E114" s="11"/>
+      <c r="E114" s="12"/>
     </row>
     <row r="115" ht="30.0" customHeight="1">
       <c r="A115" s="9"/>
-      <c r="E115" s="11"/>
+      <c r="E115" s="12"/>
     </row>
     <row r="116" ht="30.0" customHeight="1">
       <c r="A116" s="9"/>
-      <c r="E116" s="11"/>
+      <c r="E116" s="12"/>
     </row>
     <row r="117" ht="30.0" customHeight="1">
       <c r="A117" s="9"/>
-      <c r="E117" s="11"/>
+      <c r="E117" s="12"/>
     </row>
     <row r="118" ht="30.0" customHeight="1">
       <c r="A118" s="9"/>
-      <c r="E118" s="11"/>
+      <c r="E118" s="12"/>
     </row>
     <row r="119" ht="30.0" customHeight="1">
       <c r="A119" s="9"/>
-      <c r="E119" s="11"/>
+      <c r="E119" s="12"/>
     </row>
     <row r="120" ht="30.0" customHeight="1">
       <c r="A120" s="9"/>
-      <c r="E120" s="11"/>
+      <c r="E120" s="12"/>
     </row>
     <row r="121" ht="30.0" customHeight="1">
       <c r="A121" s="9"/>
-      <c r="E121" s="11"/>
+      <c r="E121" s="12"/>
     </row>
     <row r="122" ht="30.0" customHeight="1">
       <c r="A122" s="9"/>
-      <c r="E122" s="11"/>
+      <c r="E122" s="12"/>
     </row>
     <row r="123" ht="30.0" customHeight="1">
       <c r="A123" s="9"/>
-      <c r="E123" s="11"/>
+      <c r="E123" s="12"/>
     </row>
     <row r="124" ht="30.0" customHeight="1">
       <c r="A124" s="9"/>
-      <c r="E124" s="11"/>
+      <c r="E124" s="12"/>
     </row>
     <row r="125" ht="30.0" customHeight="1">
       <c r="A125" s="9"/>
-      <c r="E125" s="11"/>
+      <c r="E125" s="12"/>
     </row>
     <row r="126" ht="30.0" customHeight="1">
       <c r="A126" s="9"/>
-      <c r="E126" s="11"/>
+      <c r="E126" s="12"/>
     </row>
     <row r="127" ht="30.0" customHeight="1">
       <c r="A127" s="9"/>
-      <c r="E127" s="11"/>
+      <c r="E127" s="12"/>
     </row>
     <row r="128" ht="30.0" customHeight="1">
       <c r="A128" s="9"/>
-      <c r="E128" s="11"/>
+      <c r="E128" s="12"/>
     </row>
     <row r="129" ht="30.0" customHeight="1">
       <c r="A129" s="9"/>
-      <c r="E129" s="11"/>
+      <c r="E129" s="12"/>
     </row>
     <row r="130" ht="30.0" customHeight="1">
       <c r="A130" s="9"/>
-      <c r="E130" s="11"/>
+      <c r="E130" s="12"/>
     </row>
     <row r="131" ht="30.0" customHeight="1">
       <c r="A131" s="9"/>
-      <c r="E131" s="11"/>
+      <c r="E131" s="12"/>
     </row>
     <row r="132" ht="30.0" customHeight="1">
       <c r="A132" s="9"/>
-      <c r="E132" s="11"/>
+      <c r="E132" s="12"/>
     </row>
     <row r="133" ht="30.0" customHeight="1">
       <c r="A133" s="9"/>
-      <c r="E133" s="11"/>
+      <c r="E133" s="12"/>
     </row>
     <row r="134" ht="30.0" customHeight="1">
       <c r="A134" s="9"/>
-      <c r="E134" s="11"/>
+      <c r="E134" s="12"/>
     </row>
     <row r="135" ht="30.0" customHeight="1">
       <c r="A135" s="9"/>
-      <c r="E135" s="11"/>
+      <c r="E135" s="12"/>
     </row>
     <row r="136" ht="30.0" customHeight="1">
       <c r="A136" s="9"/>
-      <c r="E136" s="11"/>
+      <c r="E136" s="12"/>
     </row>
     <row r="137" ht="30.0" customHeight="1">
       <c r="A137" s="9"/>
-      <c r="E137" s="11"/>
+      <c r="E137" s="12"/>
     </row>
     <row r="138" ht="30.0" customHeight="1">
       <c r="A138" s="9"/>
-      <c r="E138" s="11"/>
+      <c r="E138" s="12"/>
     </row>
     <row r="139" ht="30.0" customHeight="1">
       <c r="A139" s="9"/>
-      <c r="E139" s="11"/>
+      <c r="E139" s="12"/>
     </row>
     <row r="140" ht="30.0" customHeight="1">
       <c r="A140" s="9"/>
-      <c r="E140" s="11"/>
+      <c r="E140" s="12"/>
     </row>
     <row r="141" ht="30.0" customHeight="1">
       <c r="A141" s="9"/>
-      <c r="E141" s="11"/>
+      <c r="E141" s="12"/>
     </row>
     <row r="142" ht="30.0" customHeight="1">
       <c r="A142" s="9"/>
-      <c r="E142" s="11"/>
+      <c r="E142" s="12"/>
     </row>
     <row r="143" ht="30.0" customHeight="1">
       <c r="A143" s="9"/>
-      <c r="E143" s="11"/>
+      <c r="E143" s="12"/>
     </row>
     <row r="144" ht="30.0" customHeight="1">
       <c r="A144" s="9"/>
-      <c r="E144" s="11"/>
+      <c r="E144" s="12"/>
     </row>
     <row r="145" ht="30.0" customHeight="1">
       <c r="A145" s="9"/>
-      <c r="E145" s="11"/>
+      <c r="E145" s="12"/>
     </row>
     <row r="146" ht="30.0" customHeight="1">
       <c r="A146" s="9"/>
-      <c r="E146" s="11"/>
+      <c r="E146" s="12"/>
     </row>
     <row r="147" ht="30.0" customHeight="1">
       <c r="A147" s="9"/>
-      <c r="E147" s="11"/>
+      <c r="E147" s="12"/>
     </row>
     <row r="148" ht="30.0" customHeight="1">
       <c r="A148" s="9"/>
-      <c r="E148" s="11"/>
+      <c r="E148" s="12"/>
     </row>
     <row r="149" ht="30.0" customHeight="1">
       <c r="A149" s="9"/>
-      <c r="E149" s="11"/>
+      <c r="E149" s="12"/>
     </row>
     <row r="150" ht="30.0" customHeight="1">
       <c r="A150" s="9"/>
-      <c r="E150" s="11"/>
+      <c r="E150" s="12"/>
     </row>
     <row r="151" ht="30.0" customHeight="1">
       <c r="A151" s="9"/>
-      <c r="E151" s="11"/>
+      <c r="E151" s="12"/>
     </row>
     <row r="152" ht="30.0" customHeight="1">
       <c r="A152" s="9"/>
-      <c r="E152" s="11"/>
+      <c r="E152" s="12"/>
     </row>
     <row r="153" ht="30.0" customHeight="1">
       <c r="A153" s="9"/>
-      <c r="E153" s="11"/>
+      <c r="E153" s="12"/>
     </row>
     <row r="154" ht="30.0" customHeight="1">
       <c r="A154" s="9"/>
-      <c r="E154" s="11"/>
+      <c r="E154" s="12"/>
     </row>
     <row r="155" ht="30.0" customHeight="1">
       <c r="A155" s="9"/>
-      <c r="E155" s="11"/>
+      <c r="E155" s="12"/>
     </row>
     <row r="156" ht="30.0" customHeight="1">
       <c r="A156" s="9"/>
-      <c r="E156" s="11"/>
+      <c r="E156" s="12"/>
     </row>
     <row r="157" ht="30.0" customHeight="1">
       <c r="A157" s="9"/>
-      <c r="E157" s="11"/>
+      <c r="E157" s="12"/>
     </row>
     <row r="158" ht="30.0" customHeight="1">
       <c r="A158" s="9"/>
-      <c r="E158" s="11"/>
+      <c r="E158" s="12"/>
     </row>
     <row r="159" ht="30.0" customHeight="1">
       <c r="A159" s="9"/>
-      <c r="E159" s="11"/>
+      <c r="E159" s="12"/>
     </row>
     <row r="160" ht="30.0" customHeight="1">
       <c r="A160" s="9"/>
-      <c r="E160" s="11"/>
+      <c r="E160" s="12"/>
     </row>
     <row r="161" ht="30.0" customHeight="1">
       <c r="A161" s="9"/>
-      <c r="E161" s="11"/>
+      <c r="E161" s="12"/>
     </row>
     <row r="162" ht="30.0" customHeight="1">
       <c r="A162" s="9"/>
-      <c r="E162" s="11"/>
+      <c r="E162" s="12"/>
     </row>
     <row r="163" ht="30.0" customHeight="1">
       <c r="A163" s="9"/>
-      <c r="E163" s="11"/>
+      <c r="E163" s="12"/>
     </row>
     <row r="164" ht="30.0" customHeight="1">
       <c r="A164" s="9"/>
-      <c r="E164" s="11"/>
+      <c r="E164" s="12"/>
     </row>
     <row r="165" ht="30.0" customHeight="1">
       <c r="A165" s="9"/>
-      <c r="E165" s="11"/>
+      <c r="E165" s="12"/>
     </row>
     <row r="166" ht="30.0" customHeight="1">
       <c r="A166" s="9"/>
-      <c r="E166" s="11"/>
+      <c r="E166" s="12"/>
     </row>
     <row r="167" ht="30.0" customHeight="1">
       <c r="A167" s="9"/>
-      <c r="E167" s="11"/>
+      <c r="E167" s="12"/>
     </row>
     <row r="168" ht="30.0" customHeight="1">
       <c r="A168" s="9"/>
-      <c r="E168" s="11"/>
+      <c r="E168" s="12"/>
     </row>
     <row r="169" ht="30.0" customHeight="1">
       <c r="A169" s="9"/>
-      <c r="E169" s="11"/>
+      <c r="E169" s="12"/>
     </row>
     <row r="170" ht="30.0" customHeight="1">
       <c r="A170" s="9"/>
-      <c r="E170" s="11"/>
+      <c r="E170" s="12"/>
     </row>
     <row r="171" ht="30.0" customHeight="1">
       <c r="A171" s="9"/>
-      <c r="E171" s="11"/>
+      <c r="E171" s="12"/>
     </row>
     <row r="172" ht="30.0" customHeight="1">
       <c r="A172" s="9"/>
-      <c r="E172" s="11"/>
+      <c r="E172" s="12"/>
     </row>
     <row r="173" ht="30.0" customHeight="1">
       <c r="A173" s="9"/>
-      <c r="E173" s="11"/>
+      <c r="E173" s="12"/>
     </row>
     <row r="174" ht="30.0" customHeight="1">
       <c r="A174" s="9"/>
-      <c r="E174" s="11"/>
+      <c r="E174" s="12"/>
     </row>
     <row r="175" ht="30.0" customHeight="1">
       <c r="A175" s="9"/>
-      <c r="E175" s="11"/>
+      <c r="E175" s="12"/>
     </row>
     <row r="176" ht="30.0" customHeight="1">
       <c r="A176" s="9"/>
-      <c r="E176" s="11"/>
+      <c r="E176" s="12"/>
     </row>
     <row r="177" ht="30.0" customHeight="1">
       <c r="A177" s="9"/>
-      <c r="E177" s="11"/>
+      <c r="E177" s="12"/>
     </row>
     <row r="178" ht="30.0" customHeight="1">
       <c r="A178" s="9"/>
-      <c r="E178" s="11"/>
+      <c r="E178" s="12"/>
     </row>
     <row r="179" ht="30.0" customHeight="1">
       <c r="A179" s="9"/>
-      <c r="E179" s="11"/>
+      <c r="E179" s="12"/>
     </row>
     <row r="180" ht="30.0" customHeight="1">
       <c r="A180" s="9"/>
-      <c r="E180" s="11"/>
+      <c r="E180" s="12"/>
     </row>
     <row r="181" ht="30.0" customHeight="1">
       <c r="A181" s="9"/>
-      <c r="E181" s="11"/>
+      <c r="E181" s="12"/>
     </row>
     <row r="182" ht="30.0" customHeight="1">
       <c r="A182" s="9"/>
-      <c r="E182" s="11"/>
+      <c r="E182" s="12"/>
     </row>
     <row r="183" ht="30.0" customHeight="1">
       <c r="A183" s="9"/>
-      <c r="E183" s="11"/>
+      <c r="E183" s="12"/>
     </row>
     <row r="184" ht="30.0" customHeight="1">
       <c r="A184" s="9"/>
-      <c r="E184" s="11"/>
+      <c r="E184" s="12"/>
     </row>
     <row r="185" ht="30.0" customHeight="1">
       <c r="A185" s="9"/>
-      <c r="E185" s="11"/>
+      <c r="E185" s="12"/>
     </row>
     <row r="186" ht="30.0" customHeight="1">
       <c r="A186" s="9"/>
-      <c r="E186" s="11"/>
+      <c r="E186" s="12"/>
     </row>
     <row r="187" ht="30.0" customHeight="1">
       <c r="A187" s="9"/>
-      <c r="E187" s="11"/>
+      <c r="E187" s="12"/>
     </row>
     <row r="188" ht="30.0" customHeight="1">
       <c r="A188" s="9"/>
-      <c r="E188" s="11"/>
+      <c r="E188" s="12"/>
     </row>
     <row r="189" ht="30.0" customHeight="1">
       <c r="A189" s="9"/>
-      <c r="E189" s="11"/>
+      <c r="E189" s="12"/>
     </row>
     <row r="190" ht="30.0" customHeight="1">
       <c r="A190" s="9"/>
-      <c r="E190" s="11"/>
+      <c r="E190" s="12"/>
     </row>
     <row r="191" ht="30.0" customHeight="1">
       <c r="A191" s="9"/>
-      <c r="E191" s="11"/>
+      <c r="E191" s="12"/>
     </row>
     <row r="192" ht="30.0" customHeight="1">
       <c r="A192" s="9"/>
-      <c r="E192" s="11"/>
+      <c r="E192" s="12"/>
     </row>
     <row r="193" ht="30.0" customHeight="1">
       <c r="A193" s="9"/>
-      <c r="E193" s="11"/>
+      <c r="E193" s="12"/>
     </row>
     <row r="194" ht="30.0" customHeight="1">
       <c r="A194" s="9"/>
-      <c r="E194" s="11"/>
+      <c r="E194" s="12"/>
     </row>
     <row r="195" ht="30.0" customHeight="1">
       <c r="A195" s="9"/>
-      <c r="E195" s="11"/>
+      <c r="E195" s="12"/>
     </row>
     <row r="196" ht="30.0" customHeight="1">
       <c r="A196" s="9"/>
-      <c r="E196" s="11"/>
+      <c r="E196" s="12"/>
     </row>
     <row r="197" ht="30.0" customHeight="1">
       <c r="A197" s="9"/>
-      <c r="E197" s="11"/>
+      <c r="E197" s="12"/>
     </row>
     <row r="198" ht="30.0" customHeight="1">
       <c r="A198" s="9"/>
-      <c r="E198" s="11"/>
+      <c r="E198" s="12"/>
     </row>
     <row r="199" ht="30.0" customHeight="1">
       <c r="A199" s="9"/>
-      <c r="E199" s="11"/>
+      <c r="E199" s="12"/>
     </row>
     <row r="200" ht="30.0" customHeight="1">
       <c r="A200" s="9"/>
-      <c r="E200" s="11"/>
+      <c r="E200" s="12"/>
     </row>
     <row r="201" ht="30.0" customHeight="1">
       <c r="A201" s="9"/>
-      <c r="E201" s="11"/>
+      <c r="E201" s="12"/>
     </row>
     <row r="202" ht="30.0" customHeight="1">
       <c r="A202" s="9"/>
-      <c r="E202" s="11"/>
+      <c r="E202" s="12"/>
     </row>
     <row r="203" ht="30.0" customHeight="1">
       <c r="A203" s="9"/>
-      <c r="E203" s="11"/>
+      <c r="E203" s="12"/>
     </row>
     <row r="204" ht="30.0" customHeight="1">
       <c r="A204" s="9"/>
-      <c r="E204" s="11"/>
+      <c r="E204" s="12"/>
     </row>
     <row r="205" ht="30.0" customHeight="1">
       <c r="A205" s="9"/>
-      <c r="E205" s="11"/>
+      <c r="E205" s="12"/>
     </row>
     <row r="206" ht="30.0" customHeight="1">
       <c r="A206" s="9"/>
-      <c r="E206" s="11"/>
+      <c r="E206" s="12"/>
     </row>
     <row r="207" ht="30.0" customHeight="1">
       <c r="A207" s="9"/>
-      <c r="E207" s="11"/>
+      <c r="E207" s="12"/>
     </row>
     <row r="208" ht="30.0" customHeight="1">
       <c r="A208" s="9"/>
-      <c r="E208" s="11"/>
+      <c r="E208" s="12"/>
     </row>
     <row r="209" ht="30.0" customHeight="1">
       <c r="A209" s="9"/>
-      <c r="E209" s="11"/>
+      <c r="E209" s="12"/>
     </row>
     <row r="210" ht="30.0" customHeight="1">
       <c r="A210" s="9"/>
-      <c r="E210" s="11"/>
+      <c r="E210" s="12"/>
     </row>
     <row r="211" ht="30.0" customHeight="1">
       <c r="A211" s="9"/>
-      <c r="E211" s="11"/>
+      <c r="E211" s="12"/>
     </row>
     <row r="212" ht="30.0" customHeight="1">
       <c r="A212" s="9"/>
-      <c r="E212" s="11"/>
+      <c r="E212" s="12"/>
     </row>
     <row r="213" ht="30.0" customHeight="1">
       <c r="A213" s="9"/>
-      <c r="E213" s="11"/>
+      <c r="E213" s="12"/>
     </row>
     <row r="214" ht="30.0" customHeight="1">
       <c r="A214" s="9"/>
-      <c r="E214" s="11"/>
+      <c r="E214" s="12"/>
     </row>
     <row r="215" ht="30.0" customHeight="1">
       <c r="A215" s="9"/>
-      <c r="E215" s="11"/>
+      <c r="E215" s="12"/>
     </row>
     <row r="216" ht="30.0" customHeight="1">
       <c r="A216" s="9"/>
-      <c r="E216" s="11"/>
+      <c r="E216" s="12"/>
     </row>
     <row r="217" ht="30.0" customHeight="1">
       <c r="A217" s="9"/>
-      <c r="E217" s="11"/>
+      <c r="E217" s="12"/>
     </row>
     <row r="218" ht="30.0" customHeight="1">
       <c r="A218" s="9"/>
-      <c r="E218" s="11"/>
+      <c r="E218" s="12"/>
     </row>
     <row r="219" ht="30.0" customHeight="1">
       <c r="A219" s="9"/>
-      <c r="E219" s="11"/>
+      <c r="E219" s="12"/>
     </row>
     <row r="220" ht="30.0" customHeight="1">
       <c r="A220" s="9"/>
-      <c r="E220" s="11"/>
+      <c r="E220" s="12"/>
     </row>
     <row r="221" ht="30.0" customHeight="1">
       <c r="A221" s="9"/>
-      <c r="E221" s="11"/>
+      <c r="E221" s="12"/>
     </row>
     <row r="222" ht="30.0" customHeight="1">
       <c r="A222" s="9"/>
-      <c r="E222" s="11"/>
+      <c r="E222" s="12"/>
     </row>
     <row r="223" ht="30.0" customHeight="1">
       <c r="A223" s="9"/>
-      <c r="E223" s="11"/>
+      <c r="E223" s="12"/>
     </row>
     <row r="224" ht="30.0" customHeight="1">
       <c r="A224" s="9"/>
-      <c r="E224" s="11"/>
+      <c r="E224" s="12"/>
     </row>
     <row r="225" ht="30.0" customHeight="1">
       <c r="A225" s="9"/>
-      <c r="E225" s="11"/>
+      <c r="E225" s="12"/>
     </row>
     <row r="226" ht="30.0" customHeight="1">
       <c r="A226" s="9"/>
-      <c r="E226" s="11"/>
+      <c r="E226" s="12"/>
     </row>
     <row r="227" ht="30.0" customHeight="1">
       <c r="A227" s="9"/>
-      <c r="E227" s="11"/>
+      <c r="E227" s="12"/>
     </row>
     <row r="228" ht="30.0" customHeight="1">
       <c r="A228" s="9"/>
-      <c r="E228" s="11"/>
+      <c r="E228" s="12"/>
     </row>
     <row r="229" ht="30.0" customHeight="1">
       <c r="A229" s="9"/>
-      <c r="E229" s="11"/>
+      <c r="E229" s="12"/>
     </row>
     <row r="230" ht="30.0" customHeight="1">
       <c r="A230" s="9"/>
-      <c r="E230" s="11"/>
+      <c r="E230" s="12"/>
     </row>
     <row r="231" ht="30.0" customHeight="1">
       <c r="A231" s="9"/>
-      <c r="E231" s="11"/>
+      <c r="E231" s="12"/>
     </row>
     <row r="232" ht="30.0" customHeight="1">
       <c r="A232" s="9"/>
-      <c r="E232" s="11"/>
+      <c r="E232" s="12"/>
     </row>
     <row r="233" ht="30.0" customHeight="1">
       <c r="A233" s="9"/>
-      <c r="E233" s="11"/>
+      <c r="E233" s="12"/>
     </row>
     <row r="234" ht="30.0" customHeight="1">
       <c r="A234" s="9"/>
-      <c r="E234" s="11"/>
+      <c r="E234" s="12"/>
     </row>
     <row r="235" ht="30.0" customHeight="1">
       <c r="A235" s="9"/>
-      <c r="E235" s="11"/>
+      <c r="E235" s="12"/>
     </row>
     <row r="236" ht="30.0" customHeight="1">
       <c r="A236" s="9"/>
-      <c r="E236" s="11"/>
+      <c r="E236" s="12"/>
     </row>
     <row r="237" ht="30.0" customHeight="1">
       <c r="A237" s="9"/>
-      <c r="E237" s="11"/>
+      <c r="E237" s="12"/>
     </row>
     <row r="238" ht="30.0" customHeight="1">
       <c r="A238" s="9"/>
-      <c r="E238" s="11"/>
+      <c r="E238" s="12"/>
     </row>
     <row r="239" ht="30.0" customHeight="1">
       <c r="A239" s="9"/>
-      <c r="E239" s="11"/>
+      <c r="E239" s="12"/>
     </row>
     <row r="240" ht="30.0" customHeight="1">
       <c r="A240" s="9"/>
-      <c r="E240" s="11"/>
+      <c r="E240" s="12"/>
     </row>
     <row r="241" ht="30.0" customHeight="1">
       <c r="A241" s="9"/>
-      <c r="E241" s="11"/>
+      <c r="E241" s="12"/>
     </row>
     <row r="242" ht="30.0" customHeight="1">
       <c r="A242" s="9"/>
-      <c r="E242" s="11"/>
+      <c r="E242" s="12"/>
     </row>
     <row r="243" ht="30.0" customHeight="1">
       <c r="A243" s="9"/>
-      <c r="E243" s="11"/>
+      <c r="E243" s="12"/>
     </row>
     <row r="244" ht="30.0" customHeight="1">
       <c r="A244" s="9"/>
-      <c r="E244" s="11"/>
+      <c r="E244" s="12"/>
     </row>
     <row r="245" ht="30.0" customHeight="1">
       <c r="A245" s="9"/>
-      <c r="E245" s="11"/>
+      <c r="E245" s="12"/>
     </row>
     <row r="246" ht="30.0" customHeight="1">
       <c r="A246" s="9"/>
-      <c r="E246" s="11"/>
+      <c r="E246" s="12"/>
     </row>
     <row r="247" ht="30.0" customHeight="1">
       <c r="A247" s="9"/>
-      <c r="E247" s="11"/>
+      <c r="E247" s="12"/>
     </row>
     <row r="248" ht="30.0" customHeight="1">
       <c r="A248" s="9"/>
-      <c r="E248" s="11"/>
+      <c r="E248" s="12"/>
     </row>
     <row r="249" ht="30.0" customHeight="1">
       <c r="A249" s="9"/>
-      <c r="E249" s="11"/>
+      <c r="E249" s="12"/>
     </row>
     <row r="250" ht="30.0" customHeight="1">
       <c r="A250" s="9"/>
-      <c r="E250" s="11"/>
+      <c r="E250" s="12"/>
     </row>
     <row r="251" ht="30.0" customHeight="1">
       <c r="A251" s="9"/>
-      <c r="E251" s="11"/>
+      <c r="E251" s="12"/>
     </row>
     <row r="252" ht="30.0" customHeight="1">
       <c r="A252" s="9"/>
-      <c r="E252" s="11"/>
+      <c r="E252" s="12"/>
     </row>
     <row r="253" ht="30.0" customHeight="1">
       <c r="A253" s="9"/>
-      <c r="E253" s="11"/>
+      <c r="E253" s="12"/>
     </row>
     <row r="254" ht="30.0" customHeight="1">
       <c r="A254" s="9"/>
-      <c r="E254" s="11"/>
+      <c r="E254" s="12"/>
     </row>
     <row r="255" ht="30.0" customHeight="1">
       <c r="A255" s="9"/>
-      <c r="E255" s="11"/>
+      <c r="E255" s="12"/>
     </row>
     <row r="256" ht="30.0" customHeight="1">
       <c r="A256" s="9"/>
-      <c r="E256" s="11"/>
+      <c r="E256" s="12"/>
     </row>
     <row r="257" ht="30.0" customHeight="1">
       <c r="A257" s="9"/>
-      <c r="E257" s="11"/>
+      <c r="E257" s="12"/>
     </row>
     <row r="258" ht="30.0" customHeight="1">
       <c r="A258" s="9"/>
-      <c r="E258" s="11"/>
+      <c r="E258" s="12"/>
     </row>
     <row r="259" ht="30.0" customHeight="1">
       <c r="A259" s="9"/>
-      <c r="E259" s="11"/>
+      <c r="E259" s="12"/>
     </row>
     <row r="260" ht="30.0" customHeight="1">
       <c r="A260" s="9"/>
-      <c r="E260" s="11"/>
+      <c r="E260" s="12"/>
     </row>
     <row r="261" ht="30.0" customHeight="1">
       <c r="A261" s="9"/>
-      <c r="E261" s="11"/>
+      <c r="E261" s="12"/>
     </row>
     <row r="262" ht="30.0" customHeight="1">
       <c r="A262" s="9"/>
-      <c r="E262" s="11"/>
+      <c r="E262" s="12"/>
     </row>
     <row r="263" ht="30.0" customHeight="1">
       <c r="A263" s="9"/>
-      <c r="E263" s="11"/>
+      <c r="E263" s="12"/>
     </row>
     <row r="264" ht="30.0" customHeight="1">
       <c r="A264" s="9"/>
-      <c r="E264" s="11"/>
+      <c r="E264" s="12"/>
     </row>
     <row r="265" ht="30.0" customHeight="1">
       <c r="A265" s="9"/>
-      <c r="E265" s="11"/>
+      <c r="E265" s="12"/>
     </row>
     <row r="266" ht="30.0" customHeight="1">
       <c r="A266" s="9"/>
-      <c r="E266" s="11"/>
+      <c r="E266" s="12"/>
     </row>
     <row r="267" ht="30.0" customHeight="1">
       <c r="A267" s="9"/>
-      <c r="E267" s="11"/>
+      <c r="E267" s="12"/>
     </row>
     <row r="268" ht="30.0" customHeight="1">
       <c r="A268" s="9"/>
-      <c r="E268" s="11"/>
+      <c r="E268" s="12"/>
     </row>
     <row r="269" ht="30.0" customHeight="1">
       <c r="A269" s="9"/>
-      <c r="E269" s="11"/>
+      <c r="E269" s="12"/>
     </row>
     <row r="270" ht="30.0" customHeight="1">
       <c r="A270" s="9"/>
-      <c r="E270" s="11"/>
+      <c r="E270" s="12"/>
     </row>
     <row r="271" ht="30.0" customHeight="1">
       <c r="A271" s="9"/>
-      <c r="E271" s="11"/>
+      <c r="E271" s="12"/>
     </row>
     <row r="272" ht="30.0" customHeight="1">
       <c r="A272" s="9"/>
-      <c r="E272" s="11"/>
+      <c r="E272" s="12"/>
     </row>
     <row r="273" ht="30.0" customHeight="1">
       <c r="A273" s="9"/>
-      <c r="E273" s="11"/>
+      <c r="E273" s="12"/>
     </row>
     <row r="274" ht="30.0" customHeight="1">
       <c r="A274" s="9"/>
-      <c r="E274" s="11"/>
+      <c r="E274" s="12"/>
     </row>
     <row r="275" ht="30.0" customHeight="1">
       <c r="A275" s="9"/>
-      <c r="E275" s="11"/>
+      <c r="E275" s="12"/>
     </row>
     <row r="276" ht="30.0" customHeight="1">
       <c r="A276" s="9"/>
-      <c r="E276" s="11"/>
+      <c r="E276" s="12"/>
     </row>
     <row r="277" ht="30.0" customHeight="1">
       <c r="A277" s="9"/>
-      <c r="E277" s="11"/>
+      <c r="E277" s="12"/>
     </row>
     <row r="278" ht="30.0" customHeight="1">
       <c r="A278" s="9"/>
-      <c r="E278" s="11"/>
+      <c r="E278" s="12"/>
     </row>
     <row r="279" ht="30.0" customHeight="1">
       <c r="A279" s="9"/>
-      <c r="E279" s="11"/>
+      <c r="E279" s="12"/>
     </row>
     <row r="280" ht="30.0" customHeight="1">
       <c r="A280" s="9"/>
-      <c r="E280" s="11"/>
+      <c r="E280" s="12"/>
     </row>
     <row r="281" ht="30.0" customHeight="1">
       <c r="A281" s="9"/>
-      <c r="E281" s="11"/>
+      <c r="E281" s="12"/>
     </row>
     <row r="282" ht="30.0" customHeight="1">
       <c r="A282" s="9"/>
-      <c r="E282" s="11"/>
+      <c r="E282" s="12"/>
     </row>
     <row r="283" ht="30.0" customHeight="1">
       <c r="A283" s="9"/>
-      <c r="E283" s="11"/>
+      <c r="E283" s="12"/>
     </row>
     <row r="284" ht="30.0" customHeight="1">
       <c r="A284" s="9"/>
-      <c r="E284" s="11"/>
+      <c r="E284" s="12"/>
     </row>
     <row r="285" ht="30.0" customHeight="1">
       <c r="A285" s="9"/>
-      <c r="E285" s="11"/>
+      <c r="E285" s="12"/>
     </row>
     <row r="286" ht="30.0" customHeight="1">
       <c r="A286" s="9"/>
-      <c r="E286" s="11"/>
+      <c r="E286" s="12"/>
     </row>
     <row r="287" ht="30.0" customHeight="1">
       <c r="A287" s="9"/>
-      <c r="E287" s="11"/>
+      <c r="E287" s="12"/>
     </row>
     <row r="288" ht="30.0" customHeight="1">
       <c r="A288" s="9"/>
-      <c r="E288" s="11"/>
+      <c r="E288" s="12"/>
     </row>
     <row r="289" ht="30.0" customHeight="1">
       <c r="A289" s="9"/>
-      <c r="E289" s="11"/>
+      <c r="E289" s="12"/>
     </row>
     <row r="290" ht="30.0" customHeight="1">
       <c r="A290" s="9"/>
-      <c r="E290" s="11"/>
+      <c r="E290" s="12"/>
     </row>
     <row r="291" ht="30.0" customHeight="1">
       <c r="A291" s="9"/>
-      <c r="E291" s="11"/>
+      <c r="E291" s="12"/>
     </row>
     <row r="292" ht="30.0" customHeight="1">
       <c r="A292" s="9"/>
-      <c r="E292" s="11"/>
+      <c r="E292" s="12"/>
     </row>
     <row r="293" ht="30.0" customHeight="1">
       <c r="A293" s="9"/>
-      <c r="E293" s="11"/>
+      <c r="E293" s="12"/>
     </row>
     <row r="294" ht="30.0" customHeight="1">
       <c r="A294" s="9"/>
-      <c r="E294" s="11"/>
+      <c r="E294" s="12"/>
     </row>
     <row r="295" ht="30.0" customHeight="1">
       <c r="A295" s="9"/>
-      <c r="E295" s="11"/>
+      <c r="E295" s="12"/>
     </row>
     <row r="296" ht="30.0" customHeight="1">
       <c r="A296" s="9"/>
-      <c r="E296" s="11"/>
+      <c r="E296" s="12"/>
     </row>
     <row r="297" ht="30.0" customHeight="1">
       <c r="A297" s="9"/>
-      <c r="E297" s="11"/>
+      <c r="E297" s="12"/>
     </row>
     <row r="298" ht="30.0" customHeight="1">
       <c r="A298" s="9"/>
-      <c r="E298" s="11"/>
+      <c r="E298" s="12"/>
     </row>
     <row r="299" ht="30.0" customHeight="1">
       <c r="A299" s="9"/>
-      <c r="E299" s="11"/>
+      <c r="E299" s="12"/>
     </row>
     <row r="300" ht="30.0" customHeight="1">
       <c r="A300" s="9"/>
-      <c r="E300" s="11"/>
+      <c r="E300" s="12"/>
     </row>
     <row r="301" ht="30.0" customHeight="1">
       <c r="A301" s="9"/>
-      <c r="E301" s="11"/>
+      <c r="E301" s="12"/>
     </row>
     <row r="302" ht="30.0" customHeight="1">
       <c r="A302" s="9"/>
-      <c r="E302" s="11"/>
+      <c r="E302" s="12"/>
     </row>
     <row r="303" ht="30.0" customHeight="1">
       <c r="A303" s="9"/>
-      <c r="E303" s="11"/>
+      <c r="E303" s="12"/>
     </row>
     <row r="304" ht="30.0" customHeight="1">
       <c r="A304" s="9"/>
-      <c r="E304" s="11"/>
+      <c r="E304" s="12"/>
     </row>
     <row r="305" ht="30.0" customHeight="1">
       <c r="A305" s="9"/>
-      <c r="E305" s="11"/>
+      <c r="E305" s="12"/>
     </row>
     <row r="306" ht="30.0" customHeight="1">
       <c r="A306" s="9"/>
-      <c r="E306" s="11"/>
+      <c r="E306" s="12"/>
     </row>
     <row r="307" ht="30.0" customHeight="1">
       <c r="A307" s="9"/>
-      <c r="E307" s="11"/>
+      <c r="E307" s="12"/>
     </row>
     <row r="308" ht="30.0" customHeight="1">
       <c r="A308" s="9"/>
-      <c r="E308" s="11"/>
+      <c r="E308" s="12"/>
     </row>
     <row r="309" ht="30.0" customHeight="1">
       <c r="A309" s="9"/>
-      <c r="E309" s="11"/>
+      <c r="E309" s="12"/>
     </row>
     <row r="310" ht="30.0" customHeight="1">
       <c r="A310" s="9"/>
-      <c r="E310" s="11"/>
+      <c r="E310" s="12"/>
     </row>
     <row r="311" ht="30.0" customHeight="1">
       <c r="A311" s="9"/>
-      <c r="E311" s="11"/>
+      <c r="E311" s="12"/>
     </row>
     <row r="312" ht="30.0" customHeight="1">
       <c r="A312" s="9"/>
-      <c r="E312" s="11"/>
+      <c r="E312" s="12"/>
     </row>
     <row r="313" ht="30.0" customHeight="1">
       <c r="A313" s="9"/>
-      <c r="E313" s="11"/>
+      <c r="E313" s="12"/>
     </row>
     <row r="314" ht="30.0" customHeight="1">
       <c r="A314" s="9"/>
-      <c r="E314" s="11"/>
+      <c r="E314" s="12"/>
     </row>
     <row r="315" ht="30.0" customHeight="1">
       <c r="A315" s="9"/>
-      <c r="E315" s="11"/>
+      <c r="E315" s="12"/>
     </row>
     <row r="316" ht="30.0" customHeight="1">
       <c r="A316" s="9"/>
-      <c r="E316" s="11"/>
+      <c r="E316" s="12"/>
     </row>
     <row r="317" ht="30.0" customHeight="1">
       <c r="A317" s="9"/>
-      <c r="E317" s="11"/>
+      <c r="E317" s="12"/>
     </row>
     <row r="318" ht="30.0" customHeight="1">
       <c r="A318" s="9"/>
-      <c r="E318" s="11"/>
+      <c r="E318" s="12"/>
     </row>
     <row r="319" ht="30.0" customHeight="1">
       <c r="A319" s="9"/>
-      <c r="E319" s="11"/>
+      <c r="E319" s="12"/>
     </row>
     <row r="320" ht="30.0" customHeight="1">
       <c r="A320" s="9"/>
-      <c r="E320" s="11"/>
+      <c r="E320" s="12"/>
     </row>
     <row r="321" ht="30.0" customHeight="1">
       <c r="A321" s="9"/>
-      <c r="E321" s="11"/>
+      <c r="E321" s="12"/>
     </row>
     <row r="322" ht="30.0" customHeight="1">
       <c r="A322" s="9"/>
-      <c r="E322" s="11"/>
+      <c r="E322" s="12"/>
     </row>
     <row r="323" ht="30.0" customHeight="1">
       <c r="A323" s="9"/>
-      <c r="E323" s="11"/>
+      <c r="E323" s="12"/>
     </row>
     <row r="324" ht="30.0" customHeight="1">
       <c r="A324" s="9"/>
-      <c r="E324" s="11"/>
+      <c r="E324" s="12"/>
     </row>
     <row r="325" ht="30.0" customHeight="1">
       <c r="A325" s="9"/>
-      <c r="E325" s="11"/>
+      <c r="E325" s="12"/>
     </row>
     <row r="326" ht="30.0" customHeight="1">
       <c r="A326" s="9"/>
-      <c r="E326" s="11"/>
+      <c r="E326" s="12"/>
     </row>
     <row r="327" ht="30.0" customHeight="1">
       <c r="A327" s="9"/>
-      <c r="E327" s="11"/>
+      <c r="E327" s="12"/>
     </row>
     <row r="328" ht="30.0" customHeight="1">
       <c r="A328" s="9"/>
-      <c r="E328" s="11"/>
+      <c r="E328" s="12"/>
     </row>
     <row r="329" ht="30.0" customHeight="1">
       <c r="A329" s="9"/>
-      <c r="E329" s="11"/>
+      <c r="E329" s="12"/>
     </row>
     <row r="330" ht="30.0" customHeight="1">
       <c r="A330" s="9"/>
-      <c r="E330" s="11"/>
+      <c r="E330" s="12"/>
     </row>
     <row r="331" ht="30.0" customHeight="1">
       <c r="A331" s="9"/>
-      <c r="E331" s="11"/>
+      <c r="E331" s="12"/>
     </row>
     <row r="332" ht="30.0" customHeight="1">
       <c r="A332" s="9"/>
-      <c r="E332" s="11"/>
+      <c r="E332" s="12"/>
     </row>
     <row r="333" ht="30.0" customHeight="1">
       <c r="A333" s="9"/>
-      <c r="E333" s="11"/>
+      <c r="E333" s="12"/>
     </row>
     <row r="334" ht="30.0" customHeight="1">
       <c r="A334" s="9"/>
-      <c r="E334" s="11"/>
+      <c r="E334" s="12"/>
     </row>
     <row r="335" ht="30.0" customHeight="1">
       <c r="A335" s="9"/>
-      <c r="E335" s="11"/>
+      <c r="E335" s="12"/>
     </row>
     <row r="336" ht="30.0" customHeight="1">
       <c r="A336" s="9"/>
-      <c r="E336" s="11"/>
+      <c r="E336" s="12"/>
     </row>
     <row r="337" ht="30.0" customHeight="1">
       <c r="A337" s="9"/>
-      <c r="E337" s="11"/>
+      <c r="E337" s="12"/>
     </row>
     <row r="338" ht="30.0" customHeight="1">
       <c r="A338" s="9"/>
-      <c r="E338" s="11"/>
+      <c r="E338" s="12"/>
     </row>
     <row r="339" ht="30.0" customHeight="1">
       <c r="A339" s="9"/>
-      <c r="E339" s="11"/>
+      <c r="E339" s="12"/>
     </row>
     <row r="340" ht="30.0" customHeight="1">
       <c r="A340" s="9"/>
-      <c r="E340" s="11"/>
+      <c r="E340" s="12"/>
     </row>
     <row r="341" ht="30.0" customHeight="1">
       <c r="A341" s="9"/>
-      <c r="E341" s="11"/>
+      <c r="E341" s="12"/>
     </row>
     <row r="342" ht="30.0" customHeight="1">
       <c r="A342" s="9"/>
-      <c r="E342" s="11"/>
+      <c r="E342" s="12"/>
     </row>
     <row r="343" ht="30.0" customHeight="1">
       <c r="A343" s="9"/>
-      <c r="E343" s="11"/>
+      <c r="E343" s="12"/>
     </row>
     <row r="344" ht="30.0" customHeight="1">
       <c r="A344" s="9"/>
-      <c r="E344" s="11"/>
+      <c r="E344" s="12"/>
     </row>
     <row r="345" ht="30.0" customHeight="1">
       <c r="A345" s="9"/>
-      <c r="E345" s="11"/>
+      <c r="E345" s="12"/>
     </row>
     <row r="346" ht="30.0" customHeight="1">
       <c r="A346" s="9"/>
-      <c r="E346" s="11"/>
+      <c r="E346" s="12"/>
     </row>
     <row r="347" ht="30.0" customHeight="1">
       <c r="A347" s="9"/>
-      <c r="E347" s="11"/>
+      <c r="E347" s="12"/>
     </row>
     <row r="348" ht="30.0" customHeight="1">
       <c r="A348" s="9"/>
-      <c r="E348" s="11"/>
+      <c r="E348" s="12"/>
     </row>
     <row r="349" ht="30.0" customHeight="1">
       <c r="A349" s="9"/>
-      <c r="E349" s="11"/>
+      <c r="E349" s="12"/>
     </row>
     <row r="350" ht="30.0" customHeight="1">
       <c r="A350" s="9"/>
-      <c r="E350" s="11"/>
+      <c r="E350" s="12"/>
     </row>
     <row r="351" ht="30.0" customHeight="1">
       <c r="A351" s="9"/>
-      <c r="E351" s="11"/>
+      <c r="E351" s="12"/>
     </row>
     <row r="352" ht="30.0" customHeight="1">
       <c r="A352" s="9"/>
-      <c r="E352" s="11"/>
+      <c r="E352" s="12"/>
     </row>
     <row r="353" ht="30.0" customHeight="1">
       <c r="A353" s="9"/>
-      <c r="E353" s="11"/>
+      <c r="E353" s="12"/>
     </row>
     <row r="354" ht="30.0" customHeight="1">
       <c r="A354" s="9"/>
-      <c r="E354" s="11"/>
+      <c r="E354" s="12"/>
     </row>
     <row r="355" ht="30.0" customHeight="1">
       <c r="A355" s="9"/>
-      <c r="E355" s="11"/>
+      <c r="E355" s="12"/>
     </row>
     <row r="356" ht="30.0" customHeight="1">
       <c r="A356" s="9"/>
-      <c r="E356" s="11"/>
+      <c r="E356" s="12"/>
     </row>
     <row r="357" ht="30.0" customHeight="1">
       <c r="A357" s="9"/>
-      <c r="E357" s="11"/>
+      <c r="E357" s="12"/>
     </row>
     <row r="358" ht="30.0" customHeight="1">
       <c r="A358" s="9"/>
-      <c r="E358" s="11"/>
+      <c r="E358" s="12"/>
     </row>
     <row r="359" ht="30.0" customHeight="1">
       <c r="A359" s="9"/>
-      <c r="E359" s="11"/>
+      <c r="E359" s="12"/>
     </row>
     <row r="360" ht="30.0" customHeight="1">
       <c r="A360" s="9"/>
-      <c r="E360" s="11"/>
+      <c r="E360" s="12"/>
     </row>
     <row r="361" ht="30.0" customHeight="1">
       <c r="A361" s="9"/>
-      <c r="E361" s="11"/>
+      <c r="E361" s="12"/>
     </row>
     <row r="362" ht="30.0" customHeight="1">
       <c r="A362" s="9"/>
-      <c r="E362" s="11"/>
+      <c r="E362" s="12"/>
     </row>
     <row r="363" ht="30.0" customHeight="1">
       <c r="A363" s="9"/>
-      <c r="E363" s="11"/>
+      <c r="E363" s="12"/>
     </row>
     <row r="364" ht="30.0" customHeight="1">
       <c r="A364" s="9"/>
-      <c r="E364" s="11"/>
+      <c r="E364" s="12"/>
     </row>
     <row r="365" ht="30.0" customHeight="1">
       <c r="A365" s="9"/>
-      <c r="E365" s="11"/>
+      <c r="E365" s="12"/>
     </row>
     <row r="366" ht="30.0" customHeight="1">
       <c r="A366" s="9"/>
-      <c r="E366" s="11"/>
+      <c r="E366" s="12"/>
     </row>
     <row r="367" ht="30.0" customHeight="1">
       <c r="A367" s="9"/>
-      <c r="E367" s="11"/>
+      <c r="E367" s="12"/>
     </row>
     <row r="368" ht="30.0" customHeight="1">
       <c r="A368" s="9"/>
-      <c r="E368" s="11"/>
+      <c r="E368" s="12"/>
     </row>
     <row r="369" ht="30.0" customHeight="1">
       <c r="A369" s="9"/>
-      <c r="E369" s="11"/>
+      <c r="E369" s="12"/>
     </row>
     <row r="370" ht="30.0" customHeight="1">
       <c r="A370" s="9"/>
-      <c r="E370" s="11"/>
+      <c r="E370" s="12"/>
     </row>
     <row r="371" ht="30.0" customHeight="1">
       <c r="A371" s="9"/>
-      <c r="E371" s="11"/>
+      <c r="E371" s="12"/>
     </row>
     <row r="372" ht="30.0" customHeight="1">
       <c r="A372" s="9"/>
-      <c r="E372" s="11"/>
+      <c r="E372" s="12"/>
     </row>
     <row r="373" ht="30.0" customHeight="1">
       <c r="A373" s="9"/>
-      <c r="E373" s="11"/>
+      <c r="E373" s="12"/>
     </row>
     <row r="374" ht="30.0" customHeight="1">
       <c r="A374" s="9"/>
-      <c r="E374" s="11"/>
+      <c r="E374" s="12"/>
     </row>
     <row r="375" ht="30.0" customHeight="1">
       <c r="A375" s="9"/>
-      <c r="E375" s="11"/>
+      <c r="E375" s="12"/>
     </row>
     <row r="376" ht="30.0" customHeight="1">
       <c r="A376" s="9"/>
-      <c r="E376" s="11"/>
+      <c r="E376" s="12"/>
     </row>
     <row r="377" ht="30.0" customHeight="1">
       <c r="A377" s="9"/>
-      <c r="E377" s="11"/>
+      <c r="E377" s="12"/>
     </row>
     <row r="378" ht="30.0" customHeight="1">
       <c r="A378" s="9"/>
-      <c r="E378" s="11"/>
+      <c r="E378" s="12"/>
     </row>
     <row r="379" ht="30.0" customHeight="1">
       <c r="A379" s="9"/>
-      <c r="E379" s="11"/>
+      <c r="E379" s="12"/>
     </row>
     <row r="380" ht="30.0" customHeight="1">
       <c r="A380" s="9"/>
-      <c r="E380" s="11"/>
+      <c r="E380" s="12"/>
     </row>
     <row r="381" ht="30.0" customHeight="1">
       <c r="A381" s="9"/>
-      <c r="E381" s="11"/>
+      <c r="E381" s="12"/>
     </row>
     <row r="382" ht="30.0" customHeight="1">
       <c r="A382" s="9"/>
-      <c r="E382" s="11"/>
+      <c r="E382" s="12"/>
     </row>
     <row r="383" ht="30.0" customHeight="1">
       <c r="A383" s="9"/>
-      <c r="E383" s="11"/>
+      <c r="E383" s="12"/>
     </row>
     <row r="384" ht="30.0" customHeight="1">
       <c r="A384" s="9"/>
-      <c r="E384" s="11"/>
+      <c r="E384" s="12"/>
     </row>
     <row r="385" ht="30.0" customHeight="1">
       <c r="A385" s="9"/>
-      <c r="E385" s="11"/>
+      <c r="E385" s="12"/>
     </row>
     <row r="386" ht="30.0" customHeight="1">
       <c r="A386" s="9"/>
-      <c r="E386" s="11"/>
+      <c r="E386" s="12"/>
     </row>
     <row r="387" ht="30.0" customHeight="1">
       <c r="A387" s="9"/>
-      <c r="E387" s="11"/>
+      <c r="E387" s="12"/>
     </row>
     <row r="388" ht="30.0" customHeight="1">
       <c r="A388" s="9"/>
-      <c r="E388" s="11"/>
+      <c r="E388" s="12"/>
     </row>
     <row r="389" ht="30.0" customHeight="1">
       <c r="A389" s="9"/>
-      <c r="E389" s="11"/>
+      <c r="E389" s="12"/>
     </row>
     <row r="390" ht="30.0" customHeight="1">
       <c r="A390" s="9"/>
-      <c r="E390" s="11"/>
+      <c r="E390" s="12"/>
     </row>
     <row r="391" ht="30.0" customHeight="1">
       <c r="A391" s="9"/>
-      <c r="E391" s="11"/>
+      <c r="E391" s="12"/>
     </row>
     <row r="392" ht="30.0" customHeight="1">
       <c r="A392" s="9"/>
-      <c r="E392" s="11"/>
+      <c r="E392" s="12"/>
     </row>
     <row r="393" ht="30.0" customHeight="1">
       <c r="A393" s="9"/>
-      <c r="E393" s="11"/>
+      <c r="E393" s="12"/>
     </row>
     <row r="394" ht="30.0" customHeight="1">
       <c r="A394" s="9"/>
-      <c r="E394" s="11"/>
+      <c r="E394" s="12"/>
     </row>
     <row r="395" ht="30.0" customHeight="1">
       <c r="A395" s="9"/>
-      <c r="E395" s="11"/>
+      <c r="E395" s="12"/>
     </row>
     <row r="396" ht="30.0" customHeight="1">
       <c r="A396" s="9"/>
-      <c r="E396" s="11"/>
+      <c r="E396" s="12"/>
     </row>
     <row r="397" ht="30.0" customHeight="1">
       <c r="A397" s="9"/>
-      <c r="E397" s="11"/>
+      <c r="E397" s="12"/>
     </row>
     <row r="398" ht="30.0" customHeight="1">
       <c r="A398" s="9"/>
-      <c r="E398" s="11"/>
+      <c r="E398" s="12"/>
     </row>
     <row r="399" ht="30.0" customHeight="1">
       <c r="A399" s="9"/>
-      <c r="E399" s="11"/>
+      <c r="E399" s="12"/>
     </row>
     <row r="400" ht="30.0" customHeight="1">
       <c r="A400" s="9"/>
-      <c r="E400" s="11"/>
+      <c r="E400" s="12"/>
     </row>
     <row r="401" ht="30.0" customHeight="1">
       <c r="A401" s="9"/>
-      <c r="E401" s="11"/>
+      <c r="E401" s="12"/>
     </row>
     <row r="402" ht="30.0" customHeight="1">
       <c r="A402" s="9"/>
-      <c r="E402" s="11"/>
+      <c r="E402" s="12"/>
     </row>
     <row r="403" ht="30.0" customHeight="1">
       <c r="A403" s="9"/>
-      <c r="E403" s="11"/>
+      <c r="E403" s="12"/>
     </row>
     <row r="404" ht="30.0" customHeight="1">
       <c r="A404" s="9"/>
-      <c r="E404" s="11"/>
+      <c r="E404" s="12"/>
     </row>
     <row r="405" ht="30.0" customHeight="1">
       <c r="A405" s="9"/>
-      <c r="E405" s="11"/>
+      <c r="E405" s="12"/>
     </row>
     <row r="406" ht="30.0" customHeight="1">
       <c r="A406" s="9"/>
-      <c r="E406" s="11"/>
+      <c r="E406" s="12"/>
     </row>
     <row r="407" ht="30.0" customHeight="1">
       <c r="A407" s="9"/>
-      <c r="E407" s="11"/>
+      <c r="E407" s="12"/>
     </row>
     <row r="408" ht="30.0" customHeight="1">
       <c r="A408" s="9"/>
-      <c r="E408" s="11"/>
+      <c r="E408" s="12"/>
     </row>
     <row r="409" ht="30.0" customHeight="1">
       <c r="A409" s="9"/>
-      <c r="E409" s="11"/>
+      <c r="E409" s="12"/>
     </row>
     <row r="410" ht="30.0" customHeight="1">
       <c r="A410" s="9"/>
-      <c r="E410" s="11"/>
+      <c r="E410" s="12"/>
     </row>
     <row r="411" ht="30.0" customHeight="1">
       <c r="A411" s="9"/>
-      <c r="E411" s="11"/>
+      <c r="E411" s="12"/>
     </row>
     <row r="412" ht="30.0" customHeight="1">
       <c r="A412" s="9"/>
-      <c r="E412" s="11"/>
+      <c r="E412" s="12"/>
     </row>
     <row r="413" ht="30.0" customHeight="1">
       <c r="A413" s="9"/>
-      <c r="E413" s="11"/>
+      <c r="E413" s="12"/>
     </row>
     <row r="414" ht="30.0" customHeight="1">
       <c r="A414" s="9"/>
-      <c r="E414" s="11"/>
+      <c r="E414" s="12"/>
     </row>
     <row r="415" ht="30.0" customHeight="1">
       <c r="A415" s="9"/>
-      <c r="E415" s="11"/>
+      <c r="E415" s="12"/>
     </row>
     <row r="416" ht="30.0" customHeight="1">
       <c r="A416" s="9"/>
-      <c r="E416" s="11"/>
+      <c r="E416" s="12"/>
     </row>
     <row r="417" ht="30.0" customHeight="1">
       <c r="A417" s="9"/>
-      <c r="E417" s="11"/>
+      <c r="E417" s="12"/>
     </row>
     <row r="418" ht="30.0" customHeight="1">
       <c r="A418" s="9"/>
-      <c r="E418" s="11"/>
+      <c r="E418" s="12"/>
     </row>
     <row r="419" ht="30.0" customHeight="1">
       <c r="A419" s="9"/>
-      <c r="E419" s="11"/>
+      <c r="E419" s="12"/>
     </row>
     <row r="420" ht="30.0" customHeight="1">
       <c r="A420" s="9"/>
-      <c r="E420" s="11"/>
+      <c r="E420" s="12"/>
     </row>
     <row r="421" ht="30.0" customHeight="1">
       <c r="A421" s="9"/>
-      <c r="E421" s="11"/>
+      <c r="E421" s="12"/>
     </row>
     <row r="422" ht="30.0" customHeight="1">
       <c r="A422" s="9"/>
-      <c r="E422" s="11"/>
+      <c r="E422" s="12"/>
     </row>
     <row r="423" ht="30.0" customHeight="1">
       <c r="A423" s="9"/>
-      <c r="E423" s="11"/>
+      <c r="E423" s="12"/>
     </row>
     <row r="424" ht="30.0" customHeight="1">
       <c r="A424" s="9"/>
-      <c r="E424" s="11"/>
+      <c r="E424" s="12"/>
     </row>
     <row r="425" ht="30.0" customHeight="1">
       <c r="A425" s="9"/>
-      <c r="E425" s="11"/>
+      <c r="E425" s="12"/>
     </row>
     <row r="426" ht="30.0" customHeight="1">
       <c r="A426" s="9"/>
-      <c r="E426" s="11"/>
+      <c r="E426" s="12"/>
     </row>
     <row r="427" ht="30.0" customHeight="1">
       <c r="A427" s="9"/>
-      <c r="E427" s="11"/>
+      <c r="E427" s="12"/>
     </row>
     <row r="428" ht="30.0" customHeight="1">
       <c r="A428" s="9"/>
-      <c r="E428" s="11"/>
+      <c r="E428" s="12"/>
     </row>
     <row r="429" ht="30.0" customHeight="1">
       <c r="A429" s="9"/>
-      <c r="E429" s="11"/>
+      <c r="E429" s="12"/>
     </row>
     <row r="430" ht="30.0" customHeight="1">
       <c r="A430" s="9"/>
-      <c r="E430" s="11"/>
+      <c r="E430" s="12"/>
     </row>
     <row r="431" ht="30.0" customHeight="1">
       <c r="A431" s="9"/>
-      <c r="E431" s="11"/>
+      <c r="E431" s="12"/>
     </row>
     <row r="432" ht="30.0" customHeight="1">
       <c r="A432" s="9"/>
-      <c r="E432" s="11"/>
+      <c r="E432" s="12"/>
     </row>
     <row r="433" ht="30.0" customHeight="1">
       <c r="A433" s="9"/>
-      <c r="E433" s="11"/>
+      <c r="E433" s="12"/>
     </row>
     <row r="434" ht="30.0" customHeight="1">
       <c r="A434" s="9"/>
-      <c r="E434" s="11"/>
+      <c r="E434" s="12"/>
     </row>
     <row r="435" ht="30.0" customHeight="1">
       <c r="A435" s="9"/>
-      <c r="E435" s="11"/>
+      <c r="E435" s="12"/>
     </row>
     <row r="436" ht="30.0" customHeight="1">
       <c r="A436" s="9"/>
-      <c r="E436" s="11"/>
+      <c r="E436" s="12"/>
     </row>
     <row r="437" ht="30.0" customHeight="1">
       <c r="A437" s="9"/>
-      <c r="E437" s="11"/>
+      <c r="E437" s="12"/>
     </row>
     <row r="438" ht="30.0" customHeight="1">
       <c r="A438" s="9"/>
-      <c r="E438" s="11"/>
+      <c r="E438" s="12"/>
     </row>
     <row r="439" ht="30.0" customHeight="1">
       <c r="A439" s="9"/>
-      <c r="E439" s="11"/>
+      <c r="E439" s="12"/>
     </row>
     <row r="440" ht="30.0" customHeight="1">
       <c r="A440" s="9"/>
-      <c r="E440" s="11"/>
+      <c r="E440" s="12"/>
     </row>
     <row r="441" ht="30.0" customHeight="1">
       <c r="A441" s="9"/>
-      <c r="E441" s="11"/>
+      <c r="E441" s="12"/>
     </row>
     <row r="442" ht="30.0" customHeight="1">
       <c r="A442" s="9"/>
-      <c r="E442" s="11"/>
+      <c r="E442" s="12"/>
     </row>
     <row r="443" ht="30.0" customHeight="1">
       <c r="A443" s="9"/>
-      <c r="E443" s="11"/>
+      <c r="E443" s="12"/>
     </row>
     <row r="444" ht="30.0" customHeight="1">
       <c r="A444" s="9"/>
-      <c r="E444" s="11"/>
+      <c r="E444" s="12"/>
     </row>
     <row r="445" ht="30.0" customHeight="1">
       <c r="A445" s="9"/>
-      <c r="E445" s="11"/>
+      <c r="E445" s="12"/>
     </row>
     <row r="446" ht="30.0" customHeight="1">
       <c r="A446" s="9"/>
-      <c r="E446" s="11"/>
+      <c r="E446" s="12"/>
     </row>
     <row r="447" ht="30.0" customHeight="1">
       <c r="A447" s="9"/>
-      <c r="E447" s="11"/>
+      <c r="E447" s="12"/>
     </row>
     <row r="448" ht="30.0" customHeight="1">
       <c r="A448" s="9"/>
-      <c r="E448" s="11"/>
+      <c r="E448" s="12"/>
     </row>
     <row r="449" ht="30.0" customHeight="1">
       <c r="A449" s="9"/>
-      <c r="E449" s="11"/>
+      <c r="E449" s="12"/>
     </row>
     <row r="450" ht="30.0" customHeight="1">
       <c r="A450" s="9"/>
-      <c r="E450" s="11"/>
+      <c r="E450" s="12"/>
     </row>
     <row r="451" ht="30.0" customHeight="1">
       <c r="A451" s="9"/>
-      <c r="E451" s="11"/>
+      <c r="E451" s="12"/>
     </row>
     <row r="452" ht="30.0" customHeight="1">
       <c r="A452" s="9"/>
-      <c r="E452" s="11"/>
+      <c r="E452" s="12"/>
     </row>
     <row r="453" ht="30.0" customHeight="1">
       <c r="A453" s="9"/>
-      <c r="E453" s="11"/>
+      <c r="E453" s="12"/>
     </row>
     <row r="454" ht="30.0" customHeight="1">
       <c r="A454" s="9"/>
-      <c r="E454" s="11"/>
+      <c r="E454" s="12"/>
     </row>
     <row r="455" ht="30.0" customHeight="1">
       <c r="A455" s="9"/>
-      <c r="E455" s="11"/>
+      <c r="E455" s="12"/>
     </row>
     <row r="456" ht="30.0" customHeight="1">
       <c r="A456" s="9"/>
-      <c r="E456" s="11"/>
+      <c r="E456" s="12"/>
     </row>
     <row r="457" ht="30.0" customHeight="1">
       <c r="A457" s="9"/>
-      <c r="E457" s="11"/>
+      <c r="E457" s="12"/>
     </row>
     <row r="458" ht="30.0" customHeight="1">
       <c r="A458" s="9"/>
-      <c r="E458" s="11"/>
+      <c r="E458" s="12"/>
     </row>
     <row r="459" ht="30.0" customHeight="1">
       <c r="A459" s="9"/>
-      <c r="E459" s="11"/>
+      <c r="E459" s="12"/>
     </row>
     <row r="460" ht="30.0" customHeight="1">
       <c r="A460" s="9"/>
-      <c r="E460" s="11"/>
+      <c r="E460" s="12"/>
     </row>
     <row r="461" ht="30.0" customHeight="1">
       <c r="A461" s="9"/>
-      <c r="E461" s="11"/>
+      <c r="E461" s="12"/>
     </row>
     <row r="462" ht="30.0" customHeight="1">
       <c r="A462" s="9"/>
-      <c r="E462" s="11"/>
+      <c r="E462" s="12"/>
     </row>
     <row r="463" ht="30.0" customHeight="1">
       <c r="A463" s="9"/>
-      <c r="E463" s="11"/>
+      <c r="E463" s="12"/>
     </row>
     <row r="464" ht="30.0" customHeight="1">
       <c r="A464" s="9"/>
-      <c r="E464" s="11"/>
+      <c r="E464" s="12"/>
     </row>
     <row r="465" ht="30.0" customHeight="1">
       <c r="A465" s="9"/>
-      <c r="E465" s="11"/>
+      <c r="E465" s="12"/>
     </row>
     <row r="466" ht="30.0" customHeight="1">
       <c r="A466" s="9"/>
-      <c r="E466" s="11"/>
+      <c r="E466" s="12"/>
     </row>
     <row r="467" ht="30.0" customHeight="1">
       <c r="A467" s="9"/>
-      <c r="E467" s="11"/>
+      <c r="E467" s="12"/>
     </row>
     <row r="468" ht="30.0" customHeight="1">
       <c r="A468" s="9"/>
-      <c r="E468" s="11"/>
+      <c r="E468" s="12"/>
     </row>
     <row r="469" ht="30.0" customHeight="1">
       <c r="A469" s="9"/>
-      <c r="E469" s="11"/>
+      <c r="E469" s="12"/>
     </row>
     <row r="470" ht="30.0" customHeight="1">
       <c r="A470" s="9"/>
-      <c r="E470" s="11"/>
+      <c r="E470" s="12"/>
     </row>
     <row r="471" ht="30.0" customHeight="1">
       <c r="A471" s="9"/>
-      <c r="E471" s="11"/>
+      <c r="E471" s="12"/>
     </row>
     <row r="472" ht="30.0" customHeight="1">
       <c r="A472" s="9"/>
-      <c r="E472" s="11"/>
+      <c r="E472" s="12"/>
     </row>
     <row r="473" ht="30.0" customHeight="1">
       <c r="A473" s="9"/>
-      <c r="E473" s="11"/>
+      <c r="E473" s="12"/>
     </row>
     <row r="474" ht="30.0" customHeight="1">
       <c r="A474" s="9"/>
-      <c r="E474" s="11"/>
+      <c r="E474" s="12"/>
     </row>
     <row r="475" ht="30.0" customHeight="1">
       <c r="A475" s="9"/>
-      <c r="E475" s="11"/>
+      <c r="E475" s="12"/>
     </row>
     <row r="476" ht="30.0" customHeight="1">
       <c r="A476" s="9"/>
-      <c r="E476" s="11"/>
+      <c r="E476" s="12"/>
     </row>
     <row r="477" ht="30.0" customHeight="1">
       <c r="A477" s="9"/>
-      <c r="E477" s="11"/>
+      <c r="E477" s="12"/>
     </row>
     <row r="478" ht="30.0" customHeight="1">
       <c r="A478" s="9"/>
-      <c r="E478" s="11"/>
+      <c r="E478" s="12"/>
     </row>
     <row r="479" ht="30.0" customHeight="1">
       <c r="A479" s="9"/>
-      <c r="E479" s="11"/>
+      <c r="E479" s="12"/>
     </row>
     <row r="480" ht="30.0" customHeight="1">
       <c r="A480" s="9"/>
-      <c r="E480" s="11"/>
+      <c r="E480" s="12"/>
     </row>
     <row r="481" ht="30.0" customHeight="1">
       <c r="A481" s="9"/>
-      <c r="E481" s="11"/>
+      <c r="E481" s="12"/>
     </row>
     <row r="482" ht="30.0" customHeight="1">
       <c r="A482" s="9"/>
-      <c r="E482" s="11"/>
+      <c r="E482" s="12"/>
     </row>
     <row r="483" ht="30.0" customHeight="1">
       <c r="A483" s="9"/>
-      <c r="E483" s="11"/>
+      <c r="E483" s="12"/>
     </row>
     <row r="484" ht="30.0" customHeight="1">
       <c r="A484" s="9"/>
-      <c r="E484" s="11"/>
+      <c r="E484" s="12"/>
     </row>
     <row r="485" ht="30.0" customHeight="1">
       <c r="A485" s="9"/>
-      <c r="E485" s="11"/>
+      <c r="E485" s="12"/>
     </row>
     <row r="486" ht="30.0" customHeight="1">
       <c r="A486" s="9"/>
-      <c r="E486" s="11"/>
+      <c r="E486" s="12"/>
     </row>
     <row r="487" ht="30.0" customHeight="1">
       <c r="A487" s="9"/>
-      <c r="E487" s="11"/>
+      <c r="E487" s="12"/>
     </row>
     <row r="488" ht="30.0" customHeight="1">
       <c r="A488" s="9"/>
-      <c r="E488" s="11"/>
+      <c r="E488" s="12"/>
     </row>
     <row r="489" ht="30.0" customHeight="1">
       <c r="A489" s="9"/>
-      <c r="E489" s="11"/>
+      <c r="E489" s="12"/>
     </row>
     <row r="490" ht="30.0" customHeight="1">
       <c r="A490" s="9"/>
-      <c r="E490" s="11"/>
+      <c r="E490" s="12"/>
     </row>
     <row r="491" ht="30.0" customHeight="1">
       <c r="A491" s="9"/>
-      <c r="E491" s="11"/>
+      <c r="E491" s="12"/>
     </row>
     <row r="492" ht="30.0" customHeight="1">
       <c r="A492" s="9"/>
-      <c r="E492" s="11"/>
+      <c r="E492" s="12"/>
     </row>
     <row r="493" ht="30.0" customHeight="1">
       <c r="A493" s="9"/>
-      <c r="E493" s="11"/>
+      <c r="E493" s="12"/>
     </row>
     <row r="494" ht="30.0" customHeight="1">
       <c r="A494" s="9"/>
-      <c r="E494" s="11"/>
+      <c r="E494" s="12"/>
     </row>
     <row r="495" ht="30.0" customHeight="1">
       <c r="A495" s="9"/>
-      <c r="E495" s="11"/>
+      <c r="E495" s="12"/>
     </row>
     <row r="496" ht="30.0" customHeight="1">
       <c r="A496" s="9"/>
-      <c r="E496" s="11"/>
+      <c r="E496" s="12"/>
     </row>
     <row r="497" ht="30.0" customHeight="1">
       <c r="A497" s="9"/>
-      <c r="E497" s="11"/>
+      <c r="E497" s="12"/>
     </row>
     <row r="498" ht="30.0" customHeight="1">
       <c r="A498" s="9"/>
-      <c r="E498" s="11"/>
+      <c r="E498" s="12"/>
     </row>
     <row r="499" ht="30.0" customHeight="1">
       <c r="A499" s="9"/>
-      <c r="E499" s="11"/>
+      <c r="E499" s="12"/>
     </row>
     <row r="500" ht="30.0" customHeight="1">
       <c r="A500" s="9"/>
-      <c r="E500" s="11"/>
+      <c r="E500" s="12"/>
     </row>
     <row r="501" ht="30.0" customHeight="1">
       <c r="A501" s="9"/>
-      <c r="E501" s="11"/>
+      <c r="E501" s="12"/>
     </row>
     <row r="502" ht="30.0" customHeight="1">
       <c r="A502" s="9"/>
-      <c r="E502" s="11"/>
+      <c r="E502" s="12"/>
     </row>
     <row r="503" ht="30.0" customHeight="1">
       <c r="A503" s="9"/>
-      <c r="E503" s="11"/>
+      <c r="E503" s="12"/>
     </row>
     <row r="504" ht="30.0" customHeight="1">
       <c r="A504" s="9"/>
-      <c r="E504" s="11"/>
+      <c r="E504" s="12"/>
     </row>
     <row r="505" ht="30.0" customHeight="1">
       <c r="A505" s="9"/>
-      <c r="E505" s="11"/>
+      <c r="E505" s="12"/>
     </row>
     <row r="506" ht="30.0" customHeight="1">
       <c r="A506" s="9"/>
-      <c r="E506" s="11"/>
+      <c r="E506" s="12"/>
     </row>
     <row r="507" ht="30.0" customHeight="1">
       <c r="A507" s="9"/>
-      <c r="E507" s="11"/>
+      <c r="E507" s="12"/>
     </row>
     <row r="508" ht="30.0" customHeight="1">
       <c r="A508" s="9"/>
-      <c r="E508" s="11"/>
+      <c r="E508" s="12"/>
     </row>
     <row r="509" ht="30.0" customHeight="1">
       <c r="A509" s="9"/>
-      <c r="E509" s="11"/>
+      <c r="E509" s="12"/>
     </row>
     <row r="510" ht="30.0" customHeight="1">
       <c r="A510" s="9"/>
-      <c r="E510" s="11"/>
+      <c r="E510" s="12"/>
     </row>
     <row r="511" ht="30.0" customHeight="1">
       <c r="A511" s="9"/>
-      <c r="E511" s="11"/>
+      <c r="E511" s="12"/>
     </row>
     <row r="512" ht="30.0" customHeight="1">
       <c r="A512" s="9"/>
-      <c r="E512" s="11"/>
+      <c r="E512" s="12"/>
     </row>
     <row r="513" ht="30.0" customHeight="1">
       <c r="A513" s="9"/>
-      <c r="E513" s="11"/>
+      <c r="E513" s="12"/>
     </row>
     <row r="514" ht="30.0" customHeight="1">
       <c r="A514" s="9"/>
-      <c r="E514" s="11"/>
+      <c r="E514" s="12"/>
     </row>
     <row r="515" ht="30.0" customHeight="1">
       <c r="A515" s="9"/>
-      <c r="E515" s="11"/>
+      <c r="E515" s="12"/>
     </row>
     <row r="516" ht="30.0" customHeight="1">
       <c r="A516" s="9"/>
-      <c r="E516" s="11"/>
+      <c r="E516" s="12"/>
     </row>
     <row r="517" ht="30.0" customHeight="1">
       <c r="A517" s="9"/>
-      <c r="E517" s="11"/>
+      <c r="E517" s="12"/>
     </row>
     <row r="518" ht="30.0" customHeight="1">
       <c r="A518" s="9"/>
-      <c r="E518" s="11"/>
+      <c r="E518" s="12"/>
     </row>
     <row r="519" ht="30.0" customHeight="1">
       <c r="A519" s="9"/>
-      <c r="E519" s="11"/>
+      <c r="E519" s="12"/>
     </row>
     <row r="520" ht="30.0" customHeight="1">
       <c r="A520" s="9"/>
-      <c r="E520" s="11"/>
+      <c r="E520" s="12"/>
     </row>
     <row r="521" ht="30.0" customHeight="1">
       <c r="A521" s="9"/>
-      <c r="E521" s="11"/>
+      <c r="E521" s="12"/>
     </row>
     <row r="522" ht="30.0" customHeight="1">
       <c r="A522" s="9"/>
-      <c r="E522" s="11"/>
+      <c r="E522" s="12"/>
     </row>
     <row r="523" ht="30.0" customHeight="1">
       <c r="A523" s="9"/>
-      <c r="E523" s="11"/>
+      <c r="E523" s="12"/>
     </row>
     <row r="524" ht="30.0" customHeight="1">
       <c r="A524" s="9"/>
-      <c r="E524" s="11"/>
+      <c r="E524" s="12"/>
     </row>
     <row r="525" ht="30.0" customHeight="1">
       <c r="A525" s="9"/>
-      <c r="E525" s="11"/>
+      <c r="E525" s="12"/>
     </row>
     <row r="526" ht="30.0" customHeight="1">
       <c r="A526" s="9"/>
-      <c r="E526" s="11"/>
+      <c r="E526" s="12"/>
     </row>
     <row r="527" ht="30.0" customHeight="1">
       <c r="A527" s="9"/>
-      <c r="E527" s="11"/>
+      <c r="E527" s="12"/>
     </row>
     <row r="528" ht="30.0" customHeight="1">
       <c r="A528" s="9"/>
-      <c r="E528" s="11"/>
+      <c r="E528" s="12"/>
     </row>
     <row r="529" ht="30.0" customHeight="1">
       <c r="A529" s="9"/>
-      <c r="E529" s="11"/>
+      <c r="E529" s="12"/>
     </row>
     <row r="530" ht="30.0" customHeight="1">
       <c r="A530" s="9"/>
-      <c r="E530" s="11"/>
+      <c r="E530" s="12"/>
     </row>
     <row r="531" ht="30.0" customHeight="1">
       <c r="A531" s="9"/>
-      <c r="E531" s="11"/>
+      <c r="E531" s="12"/>
     </row>
     <row r="532" ht="30.0" customHeight="1">
       <c r="A532" s="9"/>
-      <c r="E532" s="11"/>
+      <c r="E532" s="12"/>
     </row>
     <row r="533" ht="30.0" customHeight="1">
       <c r="A533" s="9"/>
-      <c r="E533" s="11"/>
+      <c r="E533" s="12"/>
     </row>
     <row r="534" ht="30.0" customHeight="1">
       <c r="A534" s="9"/>
-      <c r="E534" s="11"/>
+      <c r="E534" s="12"/>
     </row>
     <row r="535" ht="30.0" customHeight="1">
       <c r="A535" s="9"/>
-      <c r="E535" s="11"/>
+      <c r="E535" s="12"/>
     </row>
     <row r="536" ht="30.0" customHeight="1">
       <c r="A536" s="9"/>
-      <c r="E536" s="11"/>
+      <c r="E536" s="12"/>
     </row>
     <row r="537" ht="30.0" customHeight="1">
       <c r="A537" s="9"/>
-      <c r="E537" s="11"/>
+      <c r="E537" s="12"/>
     </row>
     <row r="538" ht="30.0" customHeight="1">
       <c r="A538" s="9"/>
-      <c r="E538" s="11"/>
+      <c r="E538" s="12"/>
     </row>
     <row r="539" ht="30.0" customHeight="1">
       <c r="A539" s="9"/>
-      <c r="E539" s="11"/>
+      <c r="E539" s="12"/>
     </row>
     <row r="540" ht="30.0" customHeight="1">
       <c r="A540" s="9"/>
-      <c r="E540" s="11"/>
+      <c r="E540" s="12"/>
     </row>
     <row r="541" ht="30.0" customHeight="1">
       <c r="A541" s="9"/>
-      <c r="E541" s="11"/>
+      <c r="E541" s="12"/>
     </row>
     <row r="542" ht="30.0" customHeight="1">
       <c r="A542" s="9"/>
-      <c r="E542" s="11"/>
+      <c r="E542" s="12"/>
     </row>
     <row r="543" ht="30.0" customHeight="1">
       <c r="A543" s="9"/>
-      <c r="E543" s="11"/>
+      <c r="E543" s="12"/>
     </row>
     <row r="544" ht="30.0" customHeight="1">
       <c r="A544" s="9"/>
-      <c r="E544" s="11"/>
+      <c r="E544" s="12"/>
     </row>
     <row r="545" ht="30.0" customHeight="1">
       <c r="A545" s="9"/>
-      <c r="E545" s="11"/>
+      <c r="E545" s="12"/>
     </row>
     <row r="546" ht="30.0" customHeight="1">
       <c r="A546" s="9"/>
-      <c r="E546" s="11"/>
+      <c r="E546" s="12"/>
     </row>
     <row r="547" ht="30.0" customHeight="1">
       <c r="A547" s="9"/>
-      <c r="E547" s="11"/>
+      <c r="E547" s="12"/>
     </row>
     <row r="548" ht="30.0" customHeight="1">
       <c r="A548" s="9"/>
-      <c r="E548" s="11"/>
+      <c r="E548" s="12"/>
     </row>
     <row r="549" ht="30.0" customHeight="1">
       <c r="A549" s="9"/>
-      <c r="E549" s="11"/>
+      <c r="E549" s="12"/>
     </row>
     <row r="550" ht="30.0" customHeight="1">
       <c r="A550" s="9"/>
-      <c r="E550" s="11"/>
+      <c r="E550" s="12"/>
     </row>
     <row r="551" ht="30.0" customHeight="1">
       <c r="A551" s="9"/>
-      <c r="E551" s="11"/>
+      <c r="E551" s="12"/>
     </row>
     <row r="552" ht="30.0" customHeight="1">
       <c r="A552" s="9"/>
-      <c r="E552" s="11"/>
+      <c r="E552" s="12"/>
     </row>
     <row r="553" ht="30.0" customHeight="1">
       <c r="A553" s="9"/>
-      <c r="E553" s="11"/>
+      <c r="E553" s="12"/>
     </row>
     <row r="554" ht="30.0" customHeight="1">
       <c r="A554" s="9"/>
-      <c r="E554" s="11"/>
+      <c r="E554" s="12"/>
     </row>
     <row r="555" ht="30.0" customHeight="1">
       <c r="A555" s="9"/>
-      <c r="E555" s="11"/>
+      <c r="E555" s="12"/>
     </row>
     <row r="556" ht="30.0" customHeight="1">
       <c r="A556" s="9"/>
-      <c r="E556" s="11"/>
+      <c r="E556" s="12"/>
     </row>
     <row r="557" ht="30.0" customHeight="1">
       <c r="A557" s="9"/>
-      <c r="E557" s="11"/>
+      <c r="E557" s="12"/>
     </row>
     <row r="558" ht="30.0" customHeight="1">
       <c r="A558" s="9"/>
-      <c r="E558" s="11"/>
+      <c r="E558" s="12"/>
     </row>
     <row r="559" ht="30.0" customHeight="1">
       <c r="A559" s="9"/>
-      <c r="E559" s="11"/>
+      <c r="E559" s="12"/>
     </row>
     <row r="560" ht="30.0" customHeight="1">
       <c r="A560" s="9"/>
-      <c r="E560" s="11"/>
+      <c r="E560" s="12"/>
     </row>
     <row r="561" ht="30.0" customHeight="1">
       <c r="A561" s="9"/>
-      <c r="E561" s="11"/>
+      <c r="E561" s="12"/>
     </row>
     <row r="562" ht="30.0" customHeight="1">
       <c r="A562" s="9"/>
-      <c r="E562" s="11"/>
+      <c r="E562" s="12"/>
     </row>
     <row r="563" ht="30.0" customHeight="1">
       <c r="A563" s="9"/>
-      <c r="E563" s="11"/>
+      <c r="E563" s="12"/>
     </row>
     <row r="564" ht="30.0" customHeight="1">
       <c r="A564" s="9"/>
-      <c r="E564" s="11"/>
+      <c r="E564" s="12"/>
     </row>
     <row r="565" ht="30.0" customHeight="1">
       <c r="A565" s="9"/>
-      <c r="E565" s="11"/>
+      <c r="E565" s="12"/>
     </row>
     <row r="566" ht="30.0" customHeight="1">
       <c r="A566" s="9"/>
-      <c r="E566" s="11"/>
+      <c r="E566" s="12"/>
     </row>
     <row r="567" ht="30.0" customHeight="1">
       <c r="A567" s="9"/>
-      <c r="E567" s="11"/>
+      <c r="E567" s="12"/>
     </row>
     <row r="568" ht="30.0" customHeight="1">
       <c r="A568" s="9"/>
-      <c r="E568" s="11"/>
+      <c r="E568" s="12"/>
     </row>
     <row r="569" ht="30.0" customHeight="1">
       <c r="A569" s="9"/>
-      <c r="E569" s="11"/>
+      <c r="E569" s="12"/>
     </row>
     <row r="570" ht="30.0" customHeight="1">
       <c r="A570" s="9"/>
-      <c r="E570" s="11"/>
+      <c r="E570" s="12"/>
     </row>
     <row r="571" ht="30.0" customHeight="1">
       <c r="A571" s="9"/>
-      <c r="E571" s="11"/>
+      <c r="E571" s="12"/>
     </row>
     <row r="572" ht="30.0" customHeight="1">
       <c r="A572" s="9"/>
-      <c r="E572" s="11"/>
+      <c r="E572" s="12"/>
     </row>
     <row r="573" ht="30.0" customHeight="1">
       <c r="A573" s="9"/>
-      <c r="E573" s="11"/>
+      <c r="E573" s="12"/>
     </row>
     <row r="574" ht="30.0" customHeight="1">
       <c r="A574" s="9"/>
-      <c r="E574" s="11"/>
+      <c r="E574" s="12"/>
     </row>
     <row r="575" ht="30.0" customHeight="1">
       <c r="A575" s="9"/>
-      <c r="E575" s="11"/>
+      <c r="E575" s="12"/>
     </row>
     <row r="576" ht="30.0" customHeight="1">
       <c r="A576" s="9"/>
-      <c r="E576" s="11"/>
+      <c r="E576" s="12"/>
     </row>
     <row r="577" ht="30.0" customHeight="1">
       <c r="A577" s="9"/>
-      <c r="E577" s="11"/>
+      <c r="E577" s="12"/>
     </row>
     <row r="578" ht="30.0" customHeight="1">
       <c r="A578" s="9"/>
-      <c r="E578" s="11"/>
+      <c r="E578" s="12"/>
     </row>
     <row r="579" ht="30.0" customHeight="1">
       <c r="A579" s="9"/>
-      <c r="E579" s="11"/>
+      <c r="E579" s="12"/>
     </row>
     <row r="580" ht="30.0" customHeight="1">
       <c r="A580" s="9"/>
-      <c r="E580" s="11"/>
+      <c r="E580" s="12"/>
     </row>
     <row r="581" ht="30.0" customHeight="1">
       <c r="A581" s="9"/>
-      <c r="E581" s="11"/>
+      <c r="E581" s="12"/>
     </row>
     <row r="582" ht="30.0" customHeight="1">
       <c r="A582" s="9"/>
-      <c r="E582" s="11"/>
+      <c r="E582" s="12"/>
     </row>
     <row r="583" ht="30.0" customHeight="1">
       <c r="A583" s="9"/>
-      <c r="E583" s="11"/>
+      <c r="E583" s="12"/>
     </row>
     <row r="584" ht="30.0" customHeight="1">
       <c r="A584" s="9"/>
-      <c r="E584" s="11"/>
+      <c r="E584" s="12"/>
     </row>
     <row r="585" ht="30.0" customHeight="1">
       <c r="A585" s="9"/>
-      <c r="E585" s="11"/>
+      <c r="E585" s="12"/>
     </row>
     <row r="586" ht="30.0" customHeight="1">
       <c r="A586" s="9"/>
-      <c r="E586" s="11"/>
+      <c r="E586" s="12"/>
     </row>
     <row r="587" ht="30.0" customHeight="1">
       <c r="A587" s="9"/>
-      <c r="E587" s="11"/>
+      <c r="E587" s="12"/>
     </row>
     <row r="588" ht="30.0" customHeight="1">
       <c r="A588" s="9"/>
-      <c r="E588" s="11"/>
+      <c r="E588" s="12"/>
     </row>
     <row r="589" ht="30.0" customHeight="1">
       <c r="A589" s="9"/>
-      <c r="E589" s="11"/>
+      <c r="E589" s="12"/>
     </row>
     <row r="590" ht="30.0" customHeight="1">
       <c r="A590" s="9"/>
-      <c r="E590" s="11"/>
+      <c r="E590" s="12"/>
     </row>
     <row r="591" ht="30.0" customHeight="1">
       <c r="A591" s="9"/>
-      <c r="E591" s="11"/>
+      <c r="E591" s="12"/>
     </row>
     <row r="592" ht="30.0" customHeight="1">
       <c r="A592" s="9"/>
-      <c r="E592" s="11"/>
+      <c r="E592" s="12"/>
     </row>
     <row r="593" ht="30.0" customHeight="1">
       <c r="A593" s="9"/>
-      <c r="E593" s="11"/>
+      <c r="E593" s="12"/>
     </row>
     <row r="594" ht="30.0" customHeight="1">
       <c r="A594" s="9"/>
-      <c r="E594" s="11"/>
+      <c r="E594" s="12"/>
     </row>
     <row r="595" ht="30.0" customHeight="1">
       <c r="A595" s="9"/>
-      <c r="E595" s="11"/>
+      <c r="E595" s="12"/>
     </row>
     <row r="596" ht="30.0" customHeight="1">
       <c r="A596" s="9"/>
-      <c r="E596" s="11"/>
+      <c r="E596" s="12"/>
     </row>
     <row r="597" ht="30.0" customHeight="1">
       <c r="A597" s="9"/>
-      <c r="E597" s="11"/>
+      <c r="E597" s="12"/>
     </row>
     <row r="598" ht="30.0" customHeight="1">
       <c r="A598" s="9"/>
-      <c r="E598" s="11"/>
+      <c r="E598" s="12"/>
     </row>
     <row r="599" ht="30.0" customHeight="1">
       <c r="A599" s="9"/>
-      <c r="E599" s="11"/>
+      <c r="E599" s="12"/>
     </row>
     <row r="600" ht="30.0" customHeight="1">
       <c r="A600" s="9"/>
-      <c r="E600" s="11"/>
+      <c r="E600" s="12"/>
     </row>
     <row r="601" ht="30.0" customHeight="1">
       <c r="A601" s="9"/>
-      <c r="E601" s="11"/>
+      <c r="E601" s="12"/>
     </row>
     <row r="602" ht="30.0" customHeight="1">
       <c r="A602" s="9"/>
-      <c r="E602" s="11"/>
+      <c r="E602" s="12"/>
     </row>
     <row r="603" ht="30.0" customHeight="1">
       <c r="A603" s="9"/>
-      <c r="E603" s="11"/>
+      <c r="E603" s="12"/>
     </row>
     <row r="604" ht="30.0" customHeight="1">
       <c r="A604" s="9"/>
-      <c r="E604" s="11"/>
+      <c r="E604" s="12"/>
     </row>
     <row r="605" ht="30.0" customHeight="1">
       <c r="A605" s="9"/>
-      <c r="E605" s="11"/>
+      <c r="E605" s="12"/>
     </row>
     <row r="606" ht="30.0" customHeight="1">
       <c r="A606" s="9"/>
-      <c r="E606" s="11"/>
+      <c r="E606" s="12"/>
     </row>
     <row r="607" ht="30.0" customHeight="1">
       <c r="A607" s="9"/>
-      <c r="E607" s="11"/>
+      <c r="E607" s="12"/>
     </row>
     <row r="608" ht="30.0" customHeight="1">
       <c r="A608" s="9"/>
-      <c r="E608" s="11"/>
+      <c r="E608" s="12"/>
     </row>
     <row r="609" ht="30.0" customHeight="1">
       <c r="A609" s="9"/>
-      <c r="E609" s="11"/>
+      <c r="E609" s="12"/>
     </row>
     <row r="610" ht="30.0" customHeight="1">
       <c r="A610" s="9"/>
-      <c r="E610" s="11"/>
+      <c r="E610" s="12"/>
     </row>
     <row r="611" ht="30.0" customHeight="1">
       <c r="A611" s="9"/>
-      <c r="E611" s="11"/>
+      <c r="E611" s="12"/>
     </row>
     <row r="612" ht="30.0" customHeight="1">
       <c r="A612" s="9"/>
-      <c r="E612" s="11"/>
+      <c r="E612" s="12"/>
     </row>
     <row r="613" ht="30.0" customHeight="1">
       <c r="A613" s="9"/>
-      <c r="E613" s="11"/>
+      <c r="E613" s="12"/>
     </row>
     <row r="614" ht="30.0" customHeight="1">
       <c r="A614" s="9"/>
-      <c r="E614" s="11"/>
+      <c r="E614" s="12"/>
     </row>
     <row r="615" ht="30.0" customHeight="1">
       <c r="A615" s="9"/>
-      <c r="E615" s="11"/>
+      <c r="E615" s="12"/>
     </row>
     <row r="616" ht="30.0" customHeight="1">
       <c r="A616" s="9"/>
-      <c r="E616" s="11"/>
+      <c r="E616" s="12"/>
     </row>
     <row r="617" ht="30.0" customHeight="1">
       <c r="A617" s="9"/>
-      <c r="E617" s="11"/>
+      <c r="E617" s="12"/>
     </row>
     <row r="618" ht="30.0" customHeight="1">
       <c r="A618" s="9"/>
-      <c r="E618" s="11"/>
+      <c r="E618" s="12"/>
     </row>
     <row r="619" ht="30.0" customHeight="1">
       <c r="A619" s="9"/>
-      <c r="E619" s="11"/>
+      <c r="E619" s="12"/>
     </row>
     <row r="620" ht="30.0" customHeight="1">
       <c r="A620" s="9"/>
-      <c r="E620" s="11"/>
+      <c r="E620" s="12"/>
     </row>
     <row r="621" ht="30.0" customHeight="1">
       <c r="A621" s="9"/>
-      <c r="E621" s="11"/>
+      <c r="E621" s="12"/>
     </row>
     <row r="622" ht="30.0" customHeight="1">
       <c r="A622" s="9"/>
-      <c r="E622" s="11"/>
+      <c r="E622" s="12"/>
     </row>
     <row r="623" ht="30.0" customHeight="1">
       <c r="A623" s="9"/>
-      <c r="E623" s="11"/>
+      <c r="E623" s="12"/>
     </row>
     <row r="624" ht="30.0" customHeight="1">
       <c r="A624" s="9"/>
-      <c r="E624" s="11"/>
+      <c r="E624" s="12"/>
     </row>
     <row r="625" ht="30.0" customHeight="1">
       <c r="A625" s="9"/>
-      <c r="E625" s="11"/>
+      <c r="E625" s="12"/>
     </row>
     <row r="626" ht="30.0" customHeight="1">
       <c r="A626" s="9"/>
-      <c r="E626" s="11"/>
+      <c r="E626" s="12"/>
     </row>
     <row r="627" ht="30.0" customHeight="1">
       <c r="A627" s="9"/>
-      <c r="E627" s="11"/>
+      <c r="E627" s="12"/>
     </row>
     <row r="628" ht="30.0" customHeight="1">
       <c r="A628" s="9"/>
-      <c r="E628" s="11"/>
+      <c r="E628" s="12"/>
     </row>
     <row r="629" ht="30.0" customHeight="1">
       <c r="A629" s="9"/>
-      <c r="E629" s="11"/>
+      <c r="E629" s="12"/>
     </row>
     <row r="630" ht="30.0" customHeight="1">
       <c r="A630" s="9"/>
-      <c r="E630" s="11"/>
+      <c r="E630" s="12"/>
     </row>
     <row r="631" ht="30.0" customHeight="1">
       <c r="A631" s="9"/>
-      <c r="E631" s="11"/>
+      <c r="E631" s="12"/>
     </row>
     <row r="632" ht="30.0" customHeight="1">
       <c r="A632" s="9"/>
-      <c r="E632" s="11"/>
+      <c r="E632" s="12"/>
     </row>
     <row r="633" ht="30.0" customHeight="1">
       <c r="A633" s="9"/>
-      <c r="E633" s="11"/>
+      <c r="E633" s="12"/>
     </row>
     <row r="634" ht="30.0" customHeight="1">
       <c r="A634" s="9"/>
-      <c r="E634" s="11"/>
+      <c r="E634" s="12"/>
     </row>
     <row r="635" ht="30.0" customHeight="1">
       <c r="A635" s="9"/>
-      <c r="E635" s="11"/>
+      <c r="E635" s="12"/>
     </row>
     <row r="636" ht="30.0" customHeight="1">
       <c r="A636" s="9"/>
-      <c r="E636" s="11"/>
+      <c r="E636" s="12"/>
     </row>
     <row r="637" ht="30.0" customHeight="1">
       <c r="A637" s="9"/>
-      <c r="E637" s="11"/>
+      <c r="E637" s="12"/>
     </row>
     <row r="638" ht="30.0" customHeight="1">
       <c r="A638" s="9"/>
-      <c r="E638" s="11"/>
+      <c r="E638" s="12"/>
     </row>
     <row r="639" ht="30.0" customHeight="1">
       <c r="A639" s="9"/>
-      <c r="E639" s="11"/>
+      <c r="E639" s="12"/>
     </row>
     <row r="640" ht="30.0" customHeight="1">
       <c r="A640" s="9"/>
-      <c r="E640" s="11"/>
+      <c r="E640" s="12"/>
     </row>
     <row r="641" ht="30.0" customHeight="1">
       <c r="A641" s="9"/>
-      <c r="E641" s="11"/>
+      <c r="E641" s="12"/>
     </row>
     <row r="642" ht="30.0" customHeight="1">
       <c r="A642" s="9"/>
-      <c r="E642" s="11"/>
+      <c r="E642" s="12"/>
     </row>
     <row r="643" ht="30.0" customHeight="1">
       <c r="A643" s="9"/>
-      <c r="E643" s="11"/>
+      <c r="E643" s="12"/>
     </row>
     <row r="644" ht="30.0" customHeight="1">
       <c r="A644" s="9"/>
-      <c r="E644" s="11"/>
+      <c r="E644" s="12"/>
     </row>
     <row r="645" ht="30.0" customHeight="1">
       <c r="A645" s="9"/>
-      <c r="E645" s="11"/>
+      <c r="E645" s="12"/>
     </row>
     <row r="646" ht="30.0" customHeight="1">
       <c r="A646" s="9"/>
-      <c r="E646" s="11"/>
+      <c r="E646" s="12"/>
     </row>
     <row r="647" ht="30.0" customHeight="1">
       <c r="A647" s="9"/>
-      <c r="E647" s="11"/>
+      <c r="E647" s="12"/>
     </row>
     <row r="648" ht="30.0" customHeight="1">
       <c r="A648" s="9"/>
-      <c r="E648" s="11"/>
+      <c r="E648" s="12"/>
     </row>
     <row r="649" ht="30.0" customHeight="1">
       <c r="A649" s="9"/>
-      <c r="E649" s="11"/>
+      <c r="E649" s="12"/>
     </row>
     <row r="650" ht="30.0" customHeight="1">
       <c r="A650" s="9"/>
-      <c r="E650" s="11"/>
+      <c r="E650" s="12"/>
     </row>
     <row r="651" ht="30.0" customHeight="1">
       <c r="A651" s="9"/>
-      <c r="E651" s="11"/>
+      <c r="E651" s="12"/>
     </row>
     <row r="652" ht="30.0" customHeight="1">
       <c r="A652" s="9"/>
-      <c r="E652" s="11"/>
+      <c r="E652" s="12"/>
     </row>
     <row r="653" ht="30.0" customHeight="1">
       <c r="A653" s="9"/>
-      <c r="E653" s="11"/>
+      <c r="E653" s="12"/>
     </row>
     <row r="654" ht="30.0" customHeight="1">
       <c r="A654" s="9"/>
-      <c r="E654" s="11"/>
+      <c r="E654" s="12"/>
     </row>
     <row r="655" ht="30.0" customHeight="1">
       <c r="A655" s="9"/>
-      <c r="E655" s="11"/>
+      <c r="E655" s="12"/>
     </row>
     <row r="656" ht="30.0" customHeight="1">
       <c r="A656" s="9"/>
-      <c r="E656" s="11"/>
+      <c r="E656" s="12"/>
     </row>
     <row r="657" ht="30.0" customHeight="1">
       <c r="A657" s="9"/>
-      <c r="E657" s="11"/>
+      <c r="E657" s="12"/>
     </row>
     <row r="658" ht="30.0" customHeight="1">
       <c r="A658" s="9"/>
-      <c r="E658" s="11"/>
+      <c r="E658" s="12"/>
     </row>
     <row r="659" ht="30.0" customHeight="1">
       <c r="A659" s="9"/>
-      <c r="E659" s="11"/>
+      <c r="E659" s="12"/>
     </row>
     <row r="660" ht="30.0" customHeight="1">
       <c r="A660" s="9"/>
-      <c r="E660" s="11"/>
+      <c r="E660" s="12"/>
     </row>
     <row r="661" ht="30.0" customHeight="1">
       <c r="A661" s="9"/>
-      <c r="E661" s="11"/>
+      <c r="E661" s="12"/>
     </row>
     <row r="662" ht="30.0" customHeight="1">
       <c r="A662" s="9"/>
-      <c r="E662" s="11"/>
+      <c r="E662" s="12"/>
     </row>
     <row r="663" ht="30.0" customHeight="1">
       <c r="A663" s="9"/>
-      <c r="E663" s="11"/>
+      <c r="E663" s="12"/>
     </row>
     <row r="664" ht="30.0" customHeight="1">
       <c r="A664" s="9"/>
-      <c r="E664" s="11"/>
+      <c r="E664" s="12"/>
     </row>
     <row r="665" ht="30.0" customHeight="1">
       <c r="A665" s="9"/>
-      <c r="E665" s="11"/>
+      <c r="E665" s="12"/>
     </row>
     <row r="666" ht="30.0" customHeight="1">
       <c r="A666" s="9"/>
-      <c r="E666" s="11"/>
+      <c r="E666" s="12"/>
     </row>
     <row r="667" ht="30.0" customHeight="1">
       <c r="A667" s="9"/>
-      <c r="E667" s="11"/>
+      <c r="E667" s="12"/>
     </row>
     <row r="668" ht="30.0" customHeight="1">
       <c r="A668" s="9"/>
-      <c r="E668" s="11"/>
+      <c r="E668" s="12"/>
     </row>
     <row r="669" ht="30.0" customHeight="1">
       <c r="A669" s="9"/>
-      <c r="E669" s="11"/>
+      <c r="E669" s="12"/>
     </row>
     <row r="670" ht="30.0" customHeight="1">
       <c r="A670" s="9"/>
-      <c r="E670" s="11"/>
+      <c r="E670" s="12"/>
     </row>
     <row r="671" ht="30.0" customHeight="1">
       <c r="A671" s="9"/>
-      <c r="E671" s="11"/>
+      <c r="E671" s="12"/>
     </row>
     <row r="672" ht="30.0" customHeight="1">
       <c r="A672" s="9"/>
-      <c r="E672" s="11"/>
+      <c r="E672" s="12"/>
     </row>
     <row r="673" ht="30.0" customHeight="1">
       <c r="A673" s="9"/>
-      <c r="E673" s="11"/>
+      <c r="E673" s="12"/>
     </row>
     <row r="674" ht="30.0" customHeight="1">
       <c r="A674" s="9"/>
-      <c r="E674" s="11"/>
+      <c r="E674" s="12"/>
     </row>
     <row r="675" ht="30.0" customHeight="1">
       <c r="A675" s="9"/>
-      <c r="E675" s="11"/>
+      <c r="E675" s="12"/>
     </row>
     <row r="676" ht="30.0" customHeight="1">
       <c r="A676" s="9"/>
-      <c r="E676" s="11"/>
+      <c r="E676" s="12"/>
     </row>
     <row r="677" ht="30.0" customHeight="1">
       <c r="A677" s="9"/>
-      <c r="E677" s="11"/>
+      <c r="E677" s="12"/>
     </row>
     <row r="678" ht="30.0" customHeight="1">
       <c r="A678" s="9"/>
-      <c r="E678" s="11"/>
+      <c r="E678" s="12"/>
     </row>
     <row r="679" ht="30.0" customHeight="1">
       <c r="A679" s="9"/>
-      <c r="E679" s="11"/>
+      <c r="E679" s="12"/>
     </row>
     <row r="680" ht="30.0" customHeight="1">
       <c r="A680" s="9"/>
-      <c r="E680" s="11"/>
+      <c r="E680" s="12"/>
     </row>
     <row r="681" ht="30.0" customHeight="1">
       <c r="A681" s="9"/>
-      <c r="E681" s="11"/>
+      <c r="E681" s="12"/>
     </row>
     <row r="682" ht="30.0" customHeight="1">
       <c r="A682" s="9"/>
-      <c r="E682" s="11"/>
+      <c r="E682" s="12"/>
     </row>
     <row r="683" ht="30.0" customHeight="1">
       <c r="A683" s="9"/>
-      <c r="E683" s="11"/>
+      <c r="E683" s="12"/>
     </row>
     <row r="684" ht="30.0" customHeight="1">
       <c r="A684" s="9"/>
-      <c r="E684" s="11"/>
+      <c r="E684" s="12"/>
     </row>
     <row r="685" ht="30.0" customHeight="1">
       <c r="A685" s="9"/>
-      <c r="E685" s="11"/>
+      <c r="E685" s="12"/>
     </row>
     <row r="686" ht="30.0" customHeight="1">
       <c r="A686" s="9"/>
-      <c r="E686" s="11"/>
+      <c r="E686" s="12"/>
     </row>
     <row r="687" ht="30.0" customHeight="1">
       <c r="A687" s="9"/>
-      <c r="E687" s="11"/>
+      <c r="E687" s="12"/>
     </row>
     <row r="688" ht="30.0" customHeight="1">
       <c r="A688" s="9"/>
-      <c r="E688" s="11"/>
+      <c r="E688" s="12"/>
     </row>
     <row r="689" ht="30.0" customHeight="1">
       <c r="A689" s="9"/>
-      <c r="E689" s="11"/>
+      <c r="E689" s="12"/>
     </row>
     <row r="690" ht="30.0" customHeight="1">
       <c r="A690" s="9"/>
-      <c r="E690" s="11"/>
+      <c r="E690" s="12"/>
     </row>
     <row r="691" ht="30.0" customHeight="1">
       <c r="A691" s="9"/>
-      <c r="E691" s="11"/>
+      <c r="E691" s="12"/>
     </row>
     <row r="692" ht="30.0" customHeight="1">
       <c r="A692" s="9"/>
-      <c r="E692" s="11"/>
+      <c r="E692" s="12"/>
     </row>
     <row r="693" ht="30.0" customHeight="1">
       <c r="A693" s="9"/>
-      <c r="E693" s="11"/>
+      <c r="E693" s="12"/>
     </row>
     <row r="694" ht="30.0" customHeight="1">
       <c r="A694" s="9"/>
-      <c r="E694" s="11"/>
+      <c r="E694" s="12"/>
     </row>
     <row r="695" ht="30.0" customHeight="1">
       <c r="A695" s="9"/>
-      <c r="E695" s="11"/>
+      <c r="E695" s="12"/>
     </row>
     <row r="696" ht="30.0" customHeight="1">
       <c r="A696" s="9"/>
-      <c r="E696" s="11"/>
+      <c r="E696" s="12"/>
     </row>
     <row r="697" ht="30.0" customHeight="1">
       <c r="A697" s="9"/>
-      <c r="E697" s="11"/>
+      <c r="E697" s="12"/>
     </row>
     <row r="698" ht="30.0" customHeight="1">
       <c r="A698" s="9"/>
-      <c r="E698" s="11"/>
+      <c r="E698" s="12"/>
     </row>
     <row r="699" ht="30.0" customHeight="1">
       <c r="A699" s="9"/>
-      <c r="E699" s="11"/>
+      <c r="E699" s="12"/>
     </row>
     <row r="700" ht="30.0" customHeight="1">
       <c r="A700" s="9"/>
-      <c r="E700" s="11"/>
+      <c r="E700" s="12"/>
     </row>
     <row r="701" ht="30.0" customHeight="1">
       <c r="A701" s="9"/>
-      <c r="E701" s="11"/>
+      <c r="E701" s="12"/>
     </row>
     <row r="702" ht="30.0" customHeight="1">
       <c r="A702" s="9"/>
-      <c r="E702" s="11"/>
+      <c r="E702" s="12"/>
     </row>
     <row r="703" ht="30.0" customHeight="1">
       <c r="A703" s="9"/>
-      <c r="E703" s="11"/>
+      <c r="E703" s="12"/>
     </row>
     <row r="704" ht="30.0" customHeight="1">
       <c r="A704" s="9"/>
-      <c r="E704" s="11"/>
+      <c r="E704" s="12"/>
     </row>
     <row r="705" ht="30.0" customHeight="1">
       <c r="A705" s="9"/>
-      <c r="E705" s="11"/>
+      <c r="E705" s="12"/>
     </row>
     <row r="706" ht="30.0" customHeight="1">
       <c r="A706" s="9"/>
-      <c r="E706" s="11"/>
+      <c r="E706" s="12"/>
     </row>
     <row r="707" ht="30.0" customHeight="1">
       <c r="A707" s="9"/>
-      <c r="E707" s="11"/>
+      <c r="E707" s="12"/>
     </row>
     <row r="708" ht="30.0" customHeight="1">
       <c r="A708" s="9"/>
-      <c r="E708" s="11"/>
+      <c r="E708" s="12"/>
     </row>
     <row r="709" ht="30.0" customHeight="1">
       <c r="A709" s="9"/>
-      <c r="E709" s="11"/>
+      <c r="E709" s="12"/>
     </row>
     <row r="710" ht="30.0" customHeight="1">
       <c r="A710" s="9"/>
-      <c r="E710" s="11"/>
+      <c r="E710" s="12"/>
     </row>
     <row r="711" ht="30.0" customHeight="1">
       <c r="A711" s="9"/>
-      <c r="E711" s="11"/>
+      <c r="E711" s="12"/>
     </row>
     <row r="712" ht="30.0" customHeight="1">
       <c r="A712" s="9"/>
-      <c r="E712" s="11"/>
+      <c r="E712" s="12"/>
     </row>
     <row r="713" ht="30.0" customHeight="1">
       <c r="A713" s="9"/>
-      <c r="E713" s="11"/>
+      <c r="E713" s="12"/>
     </row>
     <row r="714" ht="30.0" customHeight="1">
       <c r="A714" s="9"/>
-      <c r="E714" s="11"/>
+      <c r="E714" s="12"/>
     </row>
     <row r="715" ht="30.0" customHeight="1">
       <c r="A715" s="9"/>
-      <c r="E715" s="11"/>
+      <c r="E715" s="12"/>
     </row>
     <row r="716" ht="30.0" customHeight="1">
       <c r="A716" s="9"/>
-      <c r="E716" s="11"/>
+      <c r="E716" s="12"/>
     </row>
     <row r="717" ht="30.0" customHeight="1">
       <c r="A717" s="9"/>
-      <c r="E717" s="11"/>
+      <c r="E717" s="12"/>
     </row>
     <row r="718" ht="30.0" customHeight="1">
       <c r="A718" s="9"/>
-      <c r="E718" s="11"/>
+      <c r="E718" s="12"/>
     </row>
     <row r="719" ht="30.0" customHeight="1">
       <c r="A719" s="9"/>
-      <c r="E719" s="11"/>
+      <c r="E719" s="12"/>
     </row>
     <row r="720" ht="30.0" customHeight="1">
       <c r="A720" s="9"/>
-      <c r="E720" s="11"/>
+      <c r="E720" s="12"/>
     </row>
     <row r="721" ht="30.0" customHeight="1">
       <c r="A721" s="9"/>
-      <c r="E721" s="11"/>
+      <c r="E721" s="12"/>
     </row>
     <row r="722" ht="30.0" customHeight="1">
       <c r="A722" s="9"/>
-      <c r="E722" s="11"/>
+      <c r="E722" s="12"/>
     </row>
     <row r="723" ht="30.0" customHeight="1">
       <c r="A723" s="9"/>
-      <c r="E723" s="11"/>
+      <c r="E723" s="12"/>
     </row>
     <row r="724" ht="30.0" customHeight="1">
       <c r="A724" s="9"/>
-      <c r="E724" s="11"/>
+      <c r="E724" s="12"/>
     </row>
     <row r="725" ht="30.0" customHeight="1">
       <c r="A725" s="9"/>
-      <c r="E725" s="11"/>
+      <c r="E725" s="12"/>
     </row>
     <row r="726" ht="30.0" customHeight="1">
       <c r="A726" s="9"/>
-      <c r="E726" s="11"/>
+      <c r="E726" s="12"/>
     </row>
     <row r="727" ht="30.0" customHeight="1">
       <c r="A727" s="9"/>
-      <c r="E727" s="11"/>
+      <c r="E727" s="12"/>
     </row>
     <row r="728" ht="30.0" customHeight="1">
       <c r="A728" s="9"/>
-      <c r="E728" s="11"/>
+      <c r="E728" s="12"/>
     </row>
     <row r="729" ht="30.0" customHeight="1">
       <c r="A729" s="9"/>
-      <c r="E729" s="11"/>
+      <c r="E729" s="12"/>
     </row>
     <row r="730" ht="30.0" customHeight="1">
       <c r="A730" s="9"/>
-      <c r="E730" s="11"/>
+      <c r="E730" s="12"/>
     </row>
     <row r="731" ht="30.0" customHeight="1">
       <c r="A731" s="9"/>
-      <c r="E731" s="11"/>
+      <c r="E731" s="12"/>
     </row>
     <row r="732" ht="30.0" customHeight="1">
       <c r="A732" s="9"/>
-      <c r="E732" s="11"/>
+      <c r="E732" s="12"/>
     </row>
     <row r="733" ht="30.0" customHeight="1">
       <c r="A733" s="9"/>
-      <c r="E733" s="11"/>
+      <c r="E733" s="12"/>
     </row>
     <row r="734" ht="30.0" customHeight="1">
       <c r="A734" s="9"/>
-      <c r="E734" s="11"/>
+      <c r="E734" s="12"/>
     </row>
     <row r="735" ht="30.0" customHeight="1">
       <c r="A735" s="9"/>
-      <c r="E735" s="11"/>
+      <c r="E735" s="12"/>
     </row>
     <row r="736" ht="30.0" customHeight="1">
       <c r="A736" s="9"/>
-      <c r="E736" s="11"/>
+      <c r="E736" s="12"/>
     </row>
     <row r="737" ht="30.0" customHeight="1">
       <c r="A737" s="9"/>
-      <c r="E737" s="11"/>
+      <c r="E737" s="12"/>
     </row>
     <row r="738" ht="30.0" customHeight="1">
       <c r="A738" s="9"/>
-      <c r="E738" s="11"/>
+      <c r="E738" s="12"/>
     </row>
     <row r="739" ht="30.0" customHeight="1">
       <c r="A739" s="9"/>
-      <c r="E739" s="11"/>
+      <c r="E739" s="12"/>
     </row>
     <row r="740" ht="30.0" customHeight="1">
       <c r="A740" s="9"/>
-      <c r="E740" s="11"/>
+      <c r="E740" s="12"/>
     </row>
     <row r="741" ht="30.0" customHeight="1">
       <c r="A741" s="9"/>
-      <c r="E741" s="11"/>
+      <c r="E741" s="12"/>
     </row>
     <row r="742" ht="30.0" customHeight="1">
       <c r="A742" s="9"/>
-      <c r="E742" s="11"/>
+      <c r="E742" s="12"/>
     </row>
     <row r="743" ht="30.0" customHeight="1">
       <c r="A743" s="9"/>
-      <c r="E743" s="11"/>
+      <c r="E743" s="12"/>
     </row>
     <row r="744" ht="30.0" customHeight="1">
       <c r="A744" s="9"/>
-      <c r="E744" s="11"/>
+      <c r="E744" s="12"/>
     </row>
     <row r="745" ht="30.0" customHeight="1">
       <c r="A745" s="9"/>
-      <c r="E745" s="11"/>
+      <c r="E745" s="12"/>
     </row>
     <row r="746" ht="30.0" customHeight="1">
       <c r="A746" s="9"/>
-      <c r="E746" s="11"/>
+      <c r="E746" s="12"/>
     </row>
     <row r="747" ht="30.0" customHeight="1">
       <c r="A747" s="9"/>
-      <c r="E747" s="11"/>
+      <c r="E747" s="12"/>
     </row>
     <row r="748" ht="30.0" customHeight="1">
       <c r="A748" s="9"/>
-      <c r="E748" s="11"/>
+      <c r="E748" s="12"/>
     </row>
     <row r="749" ht="30.0" customHeight="1">
       <c r="A749" s="9"/>
-      <c r="E749" s="11"/>
+      <c r="E749" s="12"/>
     </row>
     <row r="750" ht="30.0" customHeight="1">
       <c r="A750" s="9"/>
-      <c r="E750" s="11"/>
+      <c r="E750" s="12"/>
     </row>
     <row r="751" ht="30.0" customHeight="1">
       <c r="A751" s="9"/>
-      <c r="E751" s="11"/>
+      <c r="E751" s="12"/>
     </row>
     <row r="752" ht="30.0" customHeight="1">
       <c r="A752" s="9"/>
-      <c r="E752" s="11"/>
+      <c r="E752" s="12"/>
     </row>
     <row r="753" ht="30.0" customHeight="1">
       <c r="A753" s="9"/>
-      <c r="E753" s="11"/>
+      <c r="E753" s="12"/>
     </row>
     <row r="754" ht="30.0" customHeight="1">
       <c r="A754" s="9"/>
-      <c r="E754" s="11"/>
+      <c r="E754" s="12"/>
     </row>
     <row r="755" ht="30.0" customHeight="1">
       <c r="A755" s="9"/>
-      <c r="E755" s="11"/>
+      <c r="E755" s="12"/>
     </row>
     <row r="756" ht="30.0" customHeight="1">
       <c r="A756" s="9"/>
-      <c r="E756" s="11"/>
+      <c r="E756" s="12"/>
     </row>
     <row r="757" ht="30.0" customHeight="1">
       <c r="A757" s="9"/>
-      <c r="E757" s="11"/>
+      <c r="E757" s="12"/>
     </row>
     <row r="758" ht="30.0" customHeight="1">
       <c r="A758" s="9"/>
-      <c r="E758" s="11"/>
+      <c r="E758" s="12"/>
     </row>
     <row r="759" ht="30.0" customHeight="1">
       <c r="A759" s="9"/>
-      <c r="E759" s="11"/>
+      <c r="E759" s="12"/>
     </row>
     <row r="760" ht="30.0" customHeight="1">
       <c r="A760" s="9"/>
-      <c r="E760" s="11"/>
+      <c r="E760" s="12"/>
     </row>
     <row r="761" ht="30.0" customHeight="1">
       <c r="A761" s="9"/>
-      <c r="E761" s="11"/>
+      <c r="E761" s="12"/>
     </row>
     <row r="762" ht="30.0" customHeight="1">
       <c r="A762" s="9"/>
-      <c r="E762" s="11"/>
+      <c r="E762" s="12"/>
     </row>
     <row r="763" ht="30.0" customHeight="1">
       <c r="A763" s="9"/>
-      <c r="E763" s="11"/>
+      <c r="E763" s="12"/>
     </row>
     <row r="764" ht="30.0" customHeight="1">
       <c r="A764" s="9"/>
-      <c r="E764" s="11"/>
+      <c r="E764" s="12"/>
     </row>
     <row r="765" ht="30.0" customHeight="1">
       <c r="A765" s="9"/>
-      <c r="E765" s="11"/>
+      <c r="E765" s="12"/>
     </row>
     <row r="766" ht="30.0" customHeight="1">
       <c r="A766" s="9"/>
-      <c r="E766" s="11"/>
+      <c r="E766" s="12"/>
     </row>
     <row r="767" ht="30.0" customHeight="1">
       <c r="A767" s="9"/>
-      <c r="E767" s="11"/>
+      <c r="E767" s="12"/>
     </row>
     <row r="768" ht="30.0" customHeight="1">
       <c r="A768" s="9"/>
-      <c r="E768" s="11"/>
+      <c r="E768" s="12"/>
     </row>
     <row r="769" ht="30.0" customHeight="1">
       <c r="A769" s="9"/>
-      <c r="E769" s="11"/>
+      <c r="E769" s="12"/>
     </row>
     <row r="770" ht="30.0" customHeight="1">
       <c r="A770" s="9"/>
-      <c r="E770" s="11"/>
+      <c r="E770" s="12"/>
     </row>
     <row r="771" ht="30.0" customHeight="1">
       <c r="A771" s="9"/>
-      <c r="E771" s="11"/>
+      <c r="E771" s="12"/>
     </row>
     <row r="772" ht="30.0" customHeight="1">
       <c r="A772" s="9"/>
-      <c r="E772" s="11"/>
+      <c r="E772" s="12"/>
     </row>
     <row r="773" ht="30.0" customHeight="1">
       <c r="A773" s="9"/>
-      <c r="E773" s="11"/>
+      <c r="E773" s="12"/>
     </row>
     <row r="774" ht="30.0" customHeight="1">
       <c r="A774" s="9"/>
-      <c r="E774" s="11"/>
+      <c r="E774" s="12"/>
     </row>
     <row r="775" ht="30.0" customHeight="1">
       <c r="A775" s="9"/>
-      <c r="E775" s="11"/>
+      <c r="E775" s="12"/>
     </row>
     <row r="776" ht="30.0" customHeight="1">
       <c r="A776" s="9"/>
-      <c r="E776" s="11"/>
+      <c r="E776" s="12"/>
     </row>
     <row r="777" ht="30.0" customHeight="1">
       <c r="A777" s="9"/>
-      <c r="E777" s="11"/>
+      <c r="E777" s="12"/>
     </row>
     <row r="778" ht="30.0" customHeight="1">
       <c r="A778" s="9"/>
-      <c r="E778" s="11"/>
+      <c r="E778" s="12"/>
     </row>
     <row r="779" ht="30.0" customHeight="1">
       <c r="A779" s="9"/>
-      <c r="E779" s="11"/>
+      <c r="E779" s="12"/>
     </row>
     <row r="780" ht="30.0" customHeight="1">
       <c r="A780" s="9"/>
-      <c r="E780" s="11"/>
+      <c r="E780" s="12"/>
     </row>
     <row r="781" ht="30.0" customHeight="1">
       <c r="A781" s="9"/>
-      <c r="E781" s="11"/>
+      <c r="E781" s="12"/>
     </row>
     <row r="782" ht="30.0" customHeight="1">
       <c r="A782" s="9"/>
-      <c r="E782" s="11"/>
+      <c r="E782" s="12"/>
     </row>
     <row r="783" ht="30.0" customHeight="1">
       <c r="A783" s="9"/>
-      <c r="E783" s="11"/>
+      <c r="E783" s="12"/>
     </row>
     <row r="784" ht="30.0" customHeight="1">
       <c r="A784" s="9"/>
-      <c r="E784" s="11"/>
+      <c r="E784" s="12"/>
     </row>
     <row r="785" ht="30.0" customHeight="1">
       <c r="A785" s="9"/>
-      <c r="E785" s="11"/>
+      <c r="E785" s="12"/>
     </row>
     <row r="786" ht="30.0" customHeight="1">
       <c r="A786" s="9"/>
-      <c r="E786" s="11"/>
+      <c r="E786" s="12"/>
     </row>
     <row r="787" ht="30.0" customHeight="1">
       <c r="A787" s="9"/>
-      <c r="E787" s="11"/>
+      <c r="E787" s="12"/>
     </row>
     <row r="788" ht="30.0" customHeight="1">
       <c r="A788" s="9"/>
-      <c r="E788" s="11"/>
+      <c r="E788" s="12"/>
     </row>
     <row r="789" ht="30.0" customHeight="1">
       <c r="A789" s="9"/>
-      <c r="E789" s="11"/>
+      <c r="E789" s="12"/>
     </row>
     <row r="790" ht="30.0" customHeight="1">
       <c r="A790" s="9"/>
-      <c r="E790" s="11"/>
+      <c r="E790" s="12"/>
     </row>
     <row r="791" ht="30.0" customHeight="1">
       <c r="A791" s="9"/>
-      <c r="E791" s="11"/>
+      <c r="E791" s="12"/>
     </row>
     <row r="792" ht="30.0" customHeight="1">
       <c r="A792" s="9"/>
-      <c r="E792" s="11"/>
+      <c r="E792" s="12"/>
     </row>
     <row r="793" ht="30.0" customHeight="1">
       <c r="A793" s="9"/>
-      <c r="E793" s="11"/>
+      <c r="E793" s="12"/>
     </row>
     <row r="794" ht="30.0" customHeight="1">
       <c r="A794" s="9"/>
-      <c r="E794" s="11"/>
+      <c r="E794" s="12"/>
     </row>
     <row r="795" ht="30.0" customHeight="1">
       <c r="A795" s="9"/>
-      <c r="E795" s="11"/>
+      <c r="E795" s="12"/>
     </row>
     <row r="796" ht="30.0" customHeight="1">
       <c r="A796" s="9"/>
-      <c r="E796" s="11"/>
+      <c r="E796" s="12"/>
     </row>
     <row r="797" ht="30.0" customHeight="1">
       <c r="A797" s="9"/>
-      <c r="E797" s="11"/>
+      <c r="E797" s="12"/>
     </row>
     <row r="798" ht="30.0" customHeight="1">
       <c r="A798" s="9"/>
-      <c r="E798" s="11"/>
+      <c r="E798" s="12"/>
     </row>
     <row r="799" ht="30.0" customHeight="1">
       <c r="A799" s="9"/>
-      <c r="E799" s="11"/>
+      <c r="E799" s="12"/>
     </row>
     <row r="800" ht="30.0" customHeight="1">
       <c r="A800" s="9"/>
-      <c r="E800" s="11"/>
+      <c r="E800" s="12"/>
     </row>
     <row r="801" ht="30.0" customHeight="1">
       <c r="A801" s="9"/>
-      <c r="E801" s="11"/>
+      <c r="E801" s="12"/>
     </row>
     <row r="802" ht="30.0" customHeight="1">
       <c r="A802" s="9"/>
-      <c r="E802" s="11"/>
+      <c r="E802" s="12"/>
     </row>
     <row r="803" ht="30.0" customHeight="1">
       <c r="A803" s="9"/>
-      <c r="E803" s="11"/>
+      <c r="E803" s="12"/>
     </row>
     <row r="804" ht="30.0" customHeight="1">
       <c r="A804" s="9"/>
-      <c r="E804" s="11"/>
+      <c r="E804" s="12"/>
     </row>
     <row r="805" ht="30.0" customHeight="1">
       <c r="A805" s="9"/>
-      <c r="E805" s="11"/>
+      <c r="E805" s="12"/>
     </row>
     <row r="806" ht="30.0" customHeight="1">
       <c r="A806" s="9"/>
-      <c r="E806" s="11"/>
+      <c r="E806" s="12"/>
     </row>
     <row r="807" ht="30.0" customHeight="1">
       <c r="A807" s="9"/>
-      <c r="E807" s="11"/>
+      <c r="E807" s="12"/>
     </row>
     <row r="808" ht="30.0" customHeight="1">
       <c r="A808" s="9"/>
-      <c r="E808" s="11"/>
+      <c r="E808" s="12"/>
     </row>
     <row r="809" ht="30.0" customHeight="1">
       <c r="A809" s="9"/>
-      <c r="E809" s="11"/>
+      <c r="E809" s="12"/>
     </row>
     <row r="810" ht="30.0" customHeight="1">
       <c r="A810" s="9"/>
-      <c r="E810" s="11"/>
+      <c r="E810" s="12"/>
     </row>
     <row r="811" ht="30.0" customHeight="1">
       <c r="A811" s="9"/>
-      <c r="E811" s="11"/>
+      <c r="E811" s="12"/>
     </row>
     <row r="812" ht="30.0" customHeight="1">
       <c r="A812" s="9"/>
-      <c r="E812" s="11"/>
+      <c r="E812" s="12"/>
     </row>
     <row r="813" ht="30.0" customHeight="1">
       <c r="A813" s="9"/>
-      <c r="E813" s="11"/>
+      <c r="E813" s="12"/>
     </row>
     <row r="814" ht="30.0" customHeight="1">
       <c r="A814" s="9"/>
-      <c r="E814" s="11"/>
+      <c r="E814" s="12"/>
     </row>
     <row r="815" ht="30.0" customHeight="1">
       <c r="A815" s="9"/>
-      <c r="E815" s="11"/>
+      <c r="E815" s="12"/>
     </row>
     <row r="816" ht="30.0" customHeight="1">
       <c r="A816" s="9"/>
-      <c r="E816" s="11"/>
+      <c r="E816" s="12"/>
     </row>
     <row r="817" ht="30.0" customHeight="1">
       <c r="A817" s="9"/>
-      <c r="E817" s="11"/>
+      <c r="E817" s="12"/>
     </row>
     <row r="818" ht="30.0" customHeight="1">
       <c r="A818" s="9"/>
-      <c r="E818" s="11"/>
+      <c r="E818" s="12"/>
     </row>
     <row r="819" ht="30.0" customHeight="1">
       <c r="A819" s="9"/>
-      <c r="E819" s="11"/>
+      <c r="E819" s="12"/>
     </row>
     <row r="820" ht="30.0" customHeight="1">
       <c r="A820" s="9"/>
-      <c r="E820" s="11"/>
+      <c r="E820" s="12"/>
     </row>
     <row r="821" ht="30.0" customHeight="1">
       <c r="A821" s="9"/>
-      <c r="E821" s="11"/>
+      <c r="E821" s="12"/>
     </row>
     <row r="822" ht="30.0" customHeight="1">
       <c r="A822" s="9"/>
-      <c r="E822" s="11"/>
+      <c r="E822" s="12"/>
     </row>
     <row r="823" ht="30.0" customHeight="1">
       <c r="A823" s="9"/>
-      <c r="E823" s="11"/>
+      <c r="E823" s="12"/>
     </row>
     <row r="824" ht="30.0" customHeight="1">
       <c r="A824" s="9"/>
-      <c r="E824" s="11"/>
+      <c r="E824" s="12"/>
     </row>
     <row r="825" ht="30.0" customHeight="1">
       <c r="A825" s="9"/>
-      <c r="E825" s="11"/>
+      <c r="E825" s="12"/>
     </row>
     <row r="826" ht="30.0" customHeight="1">
       <c r="A826" s="9"/>
-      <c r="E826" s="11"/>
+      <c r="E826" s="12"/>
     </row>
     <row r="827" ht="30.0" customHeight="1">
       <c r="A827" s="9"/>
-      <c r="E827" s="11"/>
+      <c r="E827" s="12"/>
     </row>
     <row r="828" ht="30.0" customHeight="1">
       <c r="A828" s="9"/>
-      <c r="E828" s="11"/>
+      <c r="E828" s="12"/>
     </row>
     <row r="829" ht="30.0" customHeight="1">
       <c r="A829" s="9"/>
-      <c r="E829" s="11"/>
+      <c r="E829" s="12"/>
     </row>
     <row r="830" ht="30.0" customHeight="1">
       <c r="A830" s="9"/>
-      <c r="E830" s="11"/>
+      <c r="E830" s="12"/>
     </row>
     <row r="831" ht="30.0" customHeight="1">
       <c r="A831" s="9"/>
-      <c r="E831" s="11"/>
+      <c r="E831" s="12"/>
     </row>
     <row r="832" ht="30.0" customHeight="1">
       <c r="A832" s="9"/>
-      <c r="E832" s="11"/>
+      <c r="E832" s="12"/>
     </row>
     <row r="833" ht="30.0" customHeight="1">
       <c r="A833" s="9"/>
-      <c r="E833" s="11"/>
+      <c r="E833" s="12"/>
     </row>
     <row r="834" ht="30.0" customHeight="1">
       <c r="A834" s="9"/>
-      <c r="E834" s="11"/>
+      <c r="E834" s="12"/>
     </row>
     <row r="835" ht="30.0" customHeight="1">
       <c r="A835" s="9"/>
-      <c r="E835" s="11"/>
+      <c r="E835" s="12"/>
     </row>
     <row r="836" ht="30.0" customHeight="1">
       <c r="A836" s="9"/>
-      <c r="E836" s="11"/>
+      <c r="E836" s="12"/>
     </row>
     <row r="837" ht="30.0" customHeight="1">
       <c r="A837" s="9"/>
-      <c r="E837" s="11"/>
+      <c r="E837" s="12"/>
     </row>
     <row r="838" ht="30.0" customHeight="1">
       <c r="A838" s="9"/>
-      <c r="E838" s="11"/>
+      <c r="E838" s="12"/>
     </row>
     <row r="839" ht="30.0" customHeight="1">
       <c r="A839" s="9"/>
-      <c r="E839" s="11"/>
+      <c r="E839" s="12"/>
     </row>
     <row r="840" ht="30.0" customHeight="1">
       <c r="A840" s="9"/>
-      <c r="E840" s="11"/>
+      <c r="E840" s="12"/>
     </row>
     <row r="841" ht="30.0" customHeight="1">
       <c r="A841" s="9"/>
-      <c r="E841" s="11"/>
+      <c r="E841" s="12"/>
     </row>
     <row r="842" ht="30.0" customHeight="1">
       <c r="A842" s="9"/>
-      <c r="E842" s="11"/>
+      <c r="E842" s="12"/>
     </row>
     <row r="843" ht="30.0" customHeight="1">
       <c r="A843" s="9"/>
-      <c r="E843" s="11"/>
+      <c r="E843" s="12"/>
     </row>
     <row r="844" ht="30.0" customHeight="1">
       <c r="A844" s="9"/>
-      <c r="E844" s="11"/>
+      <c r="E844" s="12"/>
     </row>
     <row r="845" ht="30.0" customHeight="1">
       <c r="A845" s="9"/>
-      <c r="E845" s="11"/>
+      <c r="E845" s="12"/>
     </row>
     <row r="846" ht="30.0" customHeight="1">
       <c r="A846" s="9"/>
-      <c r="E846" s="11"/>
+      <c r="E846" s="12"/>
     </row>
     <row r="847" ht="30.0" customHeight="1">
       <c r="A847" s="9"/>
-      <c r="E847" s="11"/>
+      <c r="E847" s="12"/>
     </row>
     <row r="848" ht="30.0" customHeight="1">
       <c r="A848" s="9"/>
-      <c r="E848" s="11"/>
+      <c r="E848" s="12"/>
     </row>
     <row r="849" ht="30.0" customHeight="1">
       <c r="A849" s="9"/>
-      <c r="E849" s="11"/>
+      <c r="E849" s="12"/>
     </row>
     <row r="850" ht="30.0" customHeight="1">
       <c r="A850" s="9"/>
-      <c r="E850" s="11"/>
+      <c r="E850" s="12"/>
     </row>
     <row r="851" ht="30.0" customHeight="1">
       <c r="A851" s="9"/>
-      <c r="E851" s="11"/>
+      <c r="E851" s="12"/>
     </row>
     <row r="852" ht="30.0" customHeight="1">
       <c r="A852" s="9"/>
-      <c r="E852" s="11"/>
+      <c r="E852" s="12"/>
     </row>
     <row r="853" ht="30.0" customHeight="1">
       <c r="A853" s="9"/>
-      <c r="E853" s="11"/>
+      <c r="E853" s="12"/>
     </row>
     <row r="854" ht="30.0" customHeight="1">
       <c r="A854" s="9"/>
-      <c r="E854" s="11"/>
+      <c r="E854" s="12"/>
     </row>
     <row r="855" ht="30.0" customHeight="1">
       <c r="A855" s="9"/>
-      <c r="E855" s="11"/>
+      <c r="E855" s="12"/>
     </row>
     <row r="856" ht="30.0" customHeight="1">
       <c r="A856" s="9"/>
-      <c r="E856" s="11"/>
+      <c r="E856" s="12"/>
     </row>
     <row r="857" ht="30.0" customHeight="1">
       <c r="A857" s="9"/>
-      <c r="E857" s="11"/>
+      <c r="E857" s="12"/>
     </row>
     <row r="858" ht="30.0" customHeight="1">
       <c r="A858" s="9"/>
-      <c r="E858" s="11"/>
+      <c r="E858" s="12"/>
     </row>
     <row r="859" ht="30.0" customHeight="1">
       <c r="A859" s="9"/>
-      <c r="E859" s="11"/>
+      <c r="E859" s="12"/>
     </row>
     <row r="860" ht="30.0" customHeight="1">
       <c r="A860" s="9"/>
-      <c r="E860" s="11"/>
+      <c r="E860" s="12"/>
     </row>
     <row r="861" ht="30.0" customHeight="1">
       <c r="A861" s="9"/>
-      <c r="E861" s="11"/>
+      <c r="E861" s="12"/>
     </row>
     <row r="862" ht="30.0" customHeight="1">
       <c r="A862" s="9"/>
-      <c r="E862" s="11"/>
+      <c r="E862" s="12"/>
     </row>
     <row r="863" ht="30.0" customHeight="1">
       <c r="A863" s="9"/>
-      <c r="E863" s="11"/>
+      <c r="E863" s="12"/>
     </row>
     <row r="864" ht="30.0" customHeight="1">
       <c r="A864" s="9"/>
-      <c r="E864" s="11"/>
+      <c r="E864" s="12"/>
     </row>
     <row r="865" ht="30.0" customHeight="1">
       <c r="A865" s="9"/>
-      <c r="E865" s="11"/>
+      <c r="E865" s="12"/>
     </row>
     <row r="866" ht="30.0" customHeight="1">
       <c r="A866" s="9"/>
-      <c r="E866" s="11"/>
+      <c r="E866" s="12"/>
     </row>
     <row r="867" ht="30.0" customHeight="1">
       <c r="A867" s="9"/>
-      <c r="E867" s="11"/>
+      <c r="E867" s="12"/>
     </row>
     <row r="868" ht="30.0" customHeight="1">
       <c r="A868" s="9"/>
-      <c r="E868" s="11"/>
+      <c r="E868" s="12"/>
     </row>
     <row r="869" ht="30.0" customHeight="1">
       <c r="A869" s="9"/>
-      <c r="E869" s="11"/>
+      <c r="E869" s="12"/>
     </row>
     <row r="870" ht="30.0" customHeight="1">
       <c r="A870" s="9"/>
-      <c r="E870" s="11"/>
+      <c r="E870" s="12"/>
     </row>
     <row r="871" ht="30.0" customHeight="1">
       <c r="A871" s="9"/>
-      <c r="E871" s="11"/>
+      <c r="E871" s="12"/>
     </row>
     <row r="872" ht="30.0" customHeight="1">
       <c r="A872" s="9"/>
-      <c r="E872" s="11"/>
+      <c r="E872" s="12"/>
     </row>
     <row r="873" ht="30.0" customHeight="1">
       <c r="A873" s="9"/>
-      <c r="E873" s="11"/>
+      <c r="E873" s="12"/>
     </row>
     <row r="874" ht="30.0" customHeight="1">
       <c r="A874" s="9"/>
-      <c r="E874" s="11"/>
+      <c r="E874" s="12"/>
     </row>
     <row r="875" ht="30.0" customHeight="1">
       <c r="A875" s="9"/>
-      <c r="E875" s="11"/>
+      <c r="E875" s="12"/>
     </row>
     <row r="876" ht="30.0" customHeight="1">
       <c r="A876" s="9"/>
-      <c r="E876" s="11"/>
+      <c r="E876" s="12"/>
     </row>
     <row r="877" ht="30.0" customHeight="1">
       <c r="A877" s="9"/>
-      <c r="E877" s="11"/>
+      <c r="E877" s="12"/>
     </row>
     <row r="878" ht="30.0" customHeight="1">
       <c r="A878" s="9"/>
-      <c r="E878" s="11"/>
+      <c r="E878" s="12"/>
     </row>
     <row r="879" ht="30.0" customHeight="1">
       <c r="A879" s="9"/>
-      <c r="E879" s="11"/>
+      <c r="E879" s="12"/>
     </row>
     <row r="880" ht="30.0" customHeight="1">
       <c r="A880" s="9"/>
-      <c r="E880" s="11"/>
+      <c r="E880" s="12"/>
     </row>
     <row r="881" ht="30.0" customHeight="1">
       <c r="A881" s="9"/>
-      <c r="E881" s="11"/>
+      <c r="E881" s="12"/>
     </row>
     <row r="882" ht="30.0" customHeight="1">
       <c r="A882" s="9"/>
-      <c r="E882" s="11"/>
+      <c r="E882" s="12"/>
     </row>
     <row r="883" ht="30.0" customHeight="1">
       <c r="A883" s="9"/>
-      <c r="E883" s="11"/>
+      <c r="E883" s="12"/>
     </row>
     <row r="884" ht="30.0" customHeight="1">
       <c r="A884" s="9"/>
-      <c r="E884" s="11"/>
+      <c r="E884" s="12"/>
     </row>
     <row r="885" ht="30.0" customHeight="1">
       <c r="A885" s="9"/>
-      <c r="E885" s="11"/>
+      <c r="E885" s="12"/>
     </row>
     <row r="886" ht="30.0" customHeight="1">
       <c r="A886" s="9"/>
-      <c r="E886" s="11"/>
+      <c r="E886" s="12"/>
     </row>
     <row r="887" ht="30.0" customHeight="1">
       <c r="A887" s="9"/>
-      <c r="E887" s="11"/>
+      <c r="E887" s="12"/>
     </row>
     <row r="888" ht="30.0" customHeight="1">
       <c r="A888" s="9"/>
-      <c r="E888" s="11"/>
+      <c r="E888" s="12"/>
     </row>
     <row r="889" ht="30.0" customHeight="1">
       <c r="A889" s="9"/>
-      <c r="E889" s="11"/>
+      <c r="E889" s="12"/>
     </row>
     <row r="890" ht="30.0" customHeight="1">
       <c r="A890" s="9"/>
-      <c r="E890" s="11"/>
+      <c r="E890" s="12"/>
     </row>
     <row r="891" ht="30.0" customHeight="1">
       <c r="A891" s="9"/>
-      <c r="E891" s="11"/>
+      <c r="E891" s="12"/>
     </row>
     <row r="892" ht="30.0" customHeight="1">
       <c r="A892" s="9"/>
-      <c r="E892" s="11"/>
+      <c r="E892" s="12"/>
     </row>
     <row r="893" ht="30.0" customHeight="1">
       <c r="A893" s="9"/>
-      <c r="E893" s="11"/>
+      <c r="E893" s="12"/>
     </row>
     <row r="894" ht="30.0" customHeight="1">
       <c r="A894" s="9"/>
-      <c r="E894" s="11"/>
+      <c r="E894" s="12"/>
     </row>
     <row r="895" ht="30.0" customHeight="1">
       <c r="A895" s="9"/>
-      <c r="E895" s="11"/>
+      <c r="E895" s="12"/>
     </row>
     <row r="896" ht="30.0" customHeight="1">
       <c r="A896" s="9"/>
-      <c r="E896" s="11"/>
+      <c r="E896" s="12"/>
     </row>
     <row r="897" ht="30.0" customHeight="1">
       <c r="A897" s="9"/>
-      <c r="E897" s="11"/>
+      <c r="E897" s="12"/>
     </row>
     <row r="898" ht="30.0" customHeight="1">
       <c r="A898" s="9"/>
-      <c r="E898" s="11"/>
+      <c r="E898" s="12"/>
     </row>
     <row r="899" ht="30.0" customHeight="1">
       <c r="A899" s="9"/>
-      <c r="E899" s="11"/>
+      <c r="E899" s="12"/>
     </row>
     <row r="900" ht="30.0" customHeight="1">
       <c r="A900" s="9"/>
-      <c r="E900" s="11"/>
+      <c r="E900" s="12"/>
     </row>
     <row r="901" ht="30.0" customHeight="1">
       <c r="A901" s="9"/>
-      <c r="E901" s="11"/>
+      <c r="E901" s="12"/>
     </row>
     <row r="902" ht="30.0" customHeight="1">
       <c r="A902" s="9"/>
-      <c r="E902" s="11"/>
+      <c r="E902" s="12"/>
     </row>
     <row r="903" ht="30.0" customHeight="1">
       <c r="A903" s="9"/>
-      <c r="E903" s="11"/>
+      <c r="E903" s="12"/>
     </row>
     <row r="904" ht="30.0" customHeight="1">
       <c r="A904" s="9"/>
-      <c r="E904" s="11"/>
+      <c r="E904" s="12"/>
     </row>
     <row r="905" ht="30.0" customHeight="1">
       <c r="A905" s="9"/>
-      <c r="E905" s="11"/>
+      <c r="E905" s="12"/>
     </row>
     <row r="906" ht="30.0" customHeight="1">
       <c r="A906" s="9"/>
-      <c r="E906" s="11"/>
+      <c r="E906" s="12"/>
     </row>
     <row r="907" ht="30.0" customHeight="1">
       <c r="A907" s="9"/>
-      <c r="E907" s="11"/>
+      <c r="E907" s="12"/>
     </row>
     <row r="908" ht="30.0" customHeight="1">
       <c r="A908" s="9"/>
-      <c r="E908" s="11"/>
+      <c r="E908" s="12"/>
     </row>
     <row r="909" ht="30.0" customHeight="1">
       <c r="A909" s="9"/>
-      <c r="E909" s="11"/>
+      <c r="E909" s="12"/>
     </row>
     <row r="910" ht="30.0" customHeight="1">
       <c r="A910" s="9"/>
-      <c r="E910" s="11"/>
+      <c r="E910" s="12"/>
     </row>
     <row r="911" ht="30.0" customHeight="1">
       <c r="A911" s="9"/>
-      <c r="E911" s="11"/>
+      <c r="E911" s="12"/>
     </row>
     <row r="912" ht="30.0" customHeight="1">
       <c r="A912" s="9"/>
-      <c r="E912" s="11"/>
+      <c r="E912" s="12"/>
     </row>
     <row r="913" ht="30.0" customHeight="1">
       <c r="A913" s="9"/>
-      <c r="E913" s="11"/>
+      <c r="E913" s="12"/>
     </row>
     <row r="914" ht="30.0" customHeight="1">
       <c r="A914" s="9"/>
-      <c r="E914" s="11"/>
+      <c r="E914" s="12"/>
     </row>
     <row r="915" ht="30.0" customHeight="1">
       <c r="A915" s="9"/>
-      <c r="E915" s="11"/>
+      <c r="E915" s="12"/>
     </row>
     <row r="916" ht="30.0" customHeight="1">
       <c r="A916" s="9"/>
-      <c r="E916" s="11"/>
+      <c r="E916" s="12"/>
     </row>
     <row r="917" ht="30.0" customHeight="1">
       <c r="A917" s="9"/>
-      <c r="E917" s="11"/>
+      <c r="E917" s="12"/>
     </row>
     <row r="918" ht="30.0" customHeight="1">
       <c r="A918" s="9"/>
-      <c r="E918" s="11"/>
+      <c r="E918" s="12"/>
     </row>
     <row r="919" ht="30.0" customHeight="1">
       <c r="A919" s="9"/>
-      <c r="E919" s="11"/>
+      <c r="E919" s="12"/>
     </row>
     <row r="920" ht="30.0" customHeight="1">
       <c r="A920" s="9"/>
-      <c r="E920" s="11"/>
+      <c r="E920" s="12"/>
     </row>
     <row r="921" ht="30.0" customHeight="1">
       <c r="A921" s="9"/>
-      <c r="E921" s="11"/>
+      <c r="E921" s="12"/>
     </row>
     <row r="922" ht="30.0" customHeight="1">
       <c r="A922" s="9"/>
-      <c r="E922" s="11"/>
+      <c r="E922" s="12"/>
     </row>
     <row r="923" ht="30.0" customHeight="1">
       <c r="A923" s="9"/>
-      <c r="E923" s="11"/>
+      <c r="E923" s="12"/>
     </row>
     <row r="924" ht="30.0" customHeight="1">
       <c r="A924" s="9"/>
-      <c r="E924" s="11"/>
+      <c r="E924" s="12"/>
     </row>
     <row r="925" ht="30.0" customHeight="1">
       <c r="A925" s="9"/>
-      <c r="E925" s="11"/>
+      <c r="E925" s="12"/>
     </row>
     <row r="926" ht="30.0" customHeight="1">
       <c r="A926" s="9"/>
-      <c r="E926" s="11"/>
+      <c r="E926" s="12"/>
     </row>
     <row r="927" ht="30.0" customHeight="1">
       <c r="A927" s="9"/>
-      <c r="E927" s="11"/>
+      <c r="E927" s="12"/>
     </row>
     <row r="928" ht="30.0" customHeight="1">
       <c r="A928" s="9"/>
-      <c r="E928" s="11"/>
+      <c r="E928" s="12"/>
     </row>
     <row r="929" ht="30.0" customHeight="1">
       <c r="A929" s="9"/>
-      <c r="E929" s="11"/>
+      <c r="E929" s="12"/>
     </row>
     <row r="930" ht="30.0" customHeight="1">
       <c r="A930" s="9"/>
-      <c r="E930" s="11"/>
+      <c r="E930" s="12"/>
     </row>
     <row r="931" ht="30.0" customHeight="1">
       <c r="A931" s="9"/>
-      <c r="E931" s="11"/>
+      <c r="E931" s="12"/>
     </row>
     <row r="932" ht="30.0" customHeight="1">
       <c r="A932" s="9"/>
-      <c r="E932" s="11"/>
+      <c r="E932" s="12"/>
     </row>
     <row r="933" ht="30.0" customHeight="1">
       <c r="A933" s="9"/>
-      <c r="E933" s="11"/>
+      <c r="E933" s="12"/>
     </row>
     <row r="934" ht="30.0" customHeight="1">
       <c r="A934" s="9"/>
-      <c r="E934" s="11"/>
+      <c r="E934" s="12"/>
     </row>
     <row r="935" ht="30.0" customHeight="1">
       <c r="A935" s="9"/>
-      <c r="E935" s="11"/>
+      <c r="E935" s="12"/>
     </row>
     <row r="936" ht="30.0" customHeight="1">
       <c r="A936" s="9"/>
-      <c r="E936" s="11"/>
+      <c r="E936" s="12"/>
     </row>
     <row r="937" ht="30.0" customHeight="1">
       <c r="A937" s="9"/>
-      <c r="E937" s="11"/>
+      <c r="E937" s="12"/>
     </row>
     <row r="938" ht="30.0" customHeight="1">
       <c r="A938" s="9"/>
-      <c r="E938" s="11"/>
+      <c r="E938" s="12"/>
     </row>
     <row r="939" ht="30.0" customHeight="1">
       <c r="A939" s="9"/>
-      <c r="E939" s="11"/>
+      <c r="E939" s="12"/>
     </row>
     <row r="940" ht="30.0" customHeight="1">
       <c r="A940" s="9"/>
-      <c r="E940" s="11"/>
+      <c r="E940" s="12"/>
     </row>
     <row r="941" ht="30.0" customHeight="1">
       <c r="A941" s="9"/>
-      <c r="E941" s="11"/>
+      <c r="E941" s="12"/>
     </row>
     <row r="942" ht="30.0" customHeight="1">
       <c r="A942" s="9"/>
-      <c r="E942" s="11"/>
+      <c r="E942" s="12"/>
     </row>
     <row r="943" ht="30.0" customHeight="1">
       <c r="A943" s="9"/>
-      <c r="E943" s="11"/>
+      <c r="E943" s="12"/>
     </row>
     <row r="944" ht="30.0" customHeight="1">
       <c r="A944" s="9"/>
-      <c r="E944" s="11"/>
+      <c r="E944" s="12"/>
     </row>
     <row r="945" ht="30.0" customHeight="1">
       <c r="A945" s="9"/>
-      <c r="E945" s="11"/>
+      <c r="E945" s="12"/>
     </row>
     <row r="946" ht="30.0" customHeight="1">
       <c r="A946" s="9"/>
-      <c r="E946" s="11"/>
+      <c r="E946" s="12"/>
     </row>
     <row r="947" ht="30.0" customHeight="1">
       <c r="A947" s="9"/>
-      <c r="E947" s="11"/>
+      <c r="E947" s="12"/>
     </row>
     <row r="948" ht="30.0" customHeight="1">
       <c r="A948" s="9"/>
-      <c r="E948" s="11"/>
+      <c r="E948" s="12"/>
     </row>
     <row r="949" ht="30.0" customHeight="1">
       <c r="A949" s="9"/>
-      <c r="E949" s="11"/>
+      <c r="E949" s="12"/>
     </row>
     <row r="950" ht="30.0" customHeight="1">
       <c r="A950" s="9"/>
-      <c r="E950" s="11"/>
+      <c r="E950" s="12"/>
     </row>
     <row r="951" ht="30.0" customHeight="1">
       <c r="A951" s="9"/>
-      <c r="E951" s="11"/>
+      <c r="E951" s="12"/>
     </row>
     <row r="952" ht="30.0" customHeight="1">
       <c r="A952" s="9"/>
-      <c r="E952" s="11"/>
+      <c r="E952" s="12"/>
     </row>
     <row r="953" ht="30.0" customHeight="1">
       <c r="A953" s="9"/>
-      <c r="E953" s="11"/>
+      <c r="E953" s="12"/>
     </row>
     <row r="954" ht="30.0" customHeight="1">
       <c r="A954" s="9"/>
-      <c r="E954" s="11"/>
+      <c r="E954" s="12"/>
     </row>
     <row r="955" ht="30.0" customHeight="1">
       <c r="A955" s="9"/>
-      <c r="E955" s="11"/>
+      <c r="E955" s="12"/>
     </row>
     <row r="956" ht="30.0" customHeight="1">
       <c r="A956" s="9"/>
-      <c r="E956" s="11"/>
+      <c r="E956" s="12"/>
     </row>
     <row r="957" ht="30.0" customHeight="1">
       <c r="A957" s="9"/>
-      <c r="E957" s="11"/>
+      <c r="E957" s="12"/>
     </row>
     <row r="958" ht="30.0" customHeight="1">
       <c r="A958" s="9"/>
-      <c r="E958" s="11"/>
+      <c r="E958" s="12"/>
     </row>
     <row r="959" ht="30.0" customHeight="1">
       <c r="A959" s="9"/>
-      <c r="E959" s="11"/>
+      <c r="E959" s="12"/>
     </row>
     <row r="960" ht="30.0" customHeight="1">
       <c r="A960" s="9"/>
-      <c r="E960" s="11"/>
+      <c r="E960" s="12"/>
     </row>
     <row r="961" ht="30.0" customHeight="1">
       <c r="A961" s="9"/>
-      <c r="E961" s="11"/>
+      <c r="E961" s="12"/>
     </row>
     <row r="962" ht="30.0" customHeight="1">
       <c r="A962" s="9"/>
-      <c r="E962" s="11"/>
+      <c r="E962" s="12"/>
     </row>
     <row r="963" ht="30.0" customHeight="1">
       <c r="A963" s="9"/>
-      <c r="E963" s="11"/>
+      <c r="E963" s="12"/>
     </row>
     <row r="964" ht="30.0" customHeight="1">
       <c r="A964" s="9"/>
-      <c r="E964" s="11"/>
+      <c r="E964" s="12"/>
     </row>
     <row r="965" ht="30.0" customHeight="1">
       <c r="A965" s="9"/>
-      <c r="E965" s="11"/>
+      <c r="E965" s="12"/>
     </row>
     <row r="966" ht="30.0" customHeight="1">
       <c r="A966" s="9"/>
-      <c r="E966" s="11"/>
+      <c r="E966" s="12"/>
     </row>
     <row r="967" ht="30.0" customHeight="1">
       <c r="A967" s="9"/>
-      <c r="E967" s="11"/>
+      <c r="E967" s="12"/>
     </row>
     <row r="968" ht="30.0" customHeight="1">
       <c r="A968" s="9"/>
-      <c r="E968" s="11"/>
+      <c r="E968" s="12"/>
     </row>
     <row r="969" ht="30.0" customHeight="1">
       <c r="A969" s="9"/>
-      <c r="E969" s="11"/>
+      <c r="E969" s="12"/>
     </row>
     <row r="970" ht="30.0" customHeight="1">
       <c r="A970" s="9"/>
-      <c r="E970" s="11"/>
+      <c r="E970" s="12"/>
     </row>
     <row r="971" ht="30.0" customHeight="1">
       <c r="A971" s="9"/>
-      <c r="E971" s="11"/>
+      <c r="E971" s="12"/>
     </row>
     <row r="972" ht="30.0" customHeight="1">
       <c r="A972" s="9"/>
-      <c r="E972" s="11"/>
+      <c r="E972" s="12"/>
     </row>
     <row r="973" ht="30.0" customHeight="1">
       <c r="A973" s="9"/>
-      <c r="E973" s="11"/>
+      <c r="E973" s="12"/>
     </row>
     <row r="974" ht="30.0" customHeight="1">
       <c r="A974" s="9"/>
-      <c r="E974" s="11"/>
+      <c r="E974" s="12"/>
     </row>
     <row r="975" ht="30.0" customHeight="1">
       <c r="A975" s="9"/>
-      <c r="E975" s="11"/>
+      <c r="E975" s="12"/>
     </row>
     <row r="976" ht="30.0" customHeight="1">
       <c r="A976" s="9"/>
-      <c r="E976" s="11"/>
+      <c r="E976" s="12"/>
     </row>
     <row r="977" ht="30.0" customHeight="1">
       <c r="A977" s="9"/>
-      <c r="E977" s="11"/>
+      <c r="E977" s="12"/>
     </row>
     <row r="978" ht="30.0" customHeight="1">
       <c r="A978" s="9"/>
-      <c r="E978" s="11"/>
+      <c r="E978" s="12"/>
     </row>
     <row r="979" ht="30.0" customHeight="1">
       <c r="A979" s="9"/>
-      <c r="E979" s="11"/>
+      <c r="E979" s="12"/>
     </row>
     <row r="980" ht="30.0" customHeight="1">
       <c r="A980" s="9"/>
-      <c r="E980" s="11"/>
+      <c r="E980" s="12"/>
     </row>
     <row r="981" ht="30.0" customHeight="1">
       <c r="A981" s="9"/>
-      <c r="E981" s="11"/>
+      <c r="E981" s="12"/>
     </row>
     <row r="982" ht="30.0" customHeight="1">
       <c r="A982" s="9"/>
-      <c r="E982" s="11"/>
+      <c r="E982" s="12"/>
     </row>
     <row r="983" ht="30.0" customHeight="1">
       <c r="A983" s="9"/>
-      <c r="E983" s="11"/>
+      <c r="E983" s="12"/>
     </row>
     <row r="984" ht="30.0" customHeight="1">
       <c r="A984" s="9"/>
-      <c r="E984" s="11"/>
+      <c r="E984" s="12"/>
     </row>
     <row r="985" ht="30.0" customHeight="1">
       <c r="A985" s="9"/>
-      <c r="E985" s="11"/>
+      <c r="E985" s="12"/>
     </row>
     <row r="986" ht="30.0" customHeight="1">
       <c r="A986" s="9"/>
-      <c r="E986" s="11"/>
+      <c r="E986" s="12"/>
     </row>
     <row r="987" ht="30.0" customHeight="1">
       <c r="A987" s="9"/>
-      <c r="E987" s="11"/>
+      <c r="E987" s="12"/>
     </row>
     <row r="988" ht="30.0" customHeight="1">
       <c r="A988" s="9"/>
-      <c r="E988" s="11"/>
+      <c r="E988" s="12"/>
     </row>
     <row r="989" ht="30.0" customHeight="1">
       <c r="A989" s="9"/>
-      <c r="E989" s="11"/>
+      <c r="E989" s="12"/>
     </row>
     <row r="990" ht="30.0" customHeight="1">
       <c r="A990" s="9"/>
-      <c r="E990" s="11"/>
+      <c r="E990" s="12"/>
     </row>
     <row r="991" ht="30.0" customHeight="1">
       <c r="A991" s="9"/>
-      <c r="E991" s="11"/>
+      <c r="E991" s="12"/>
     </row>
     <row r="992" ht="30.0" customHeight="1">
       <c r="A992" s="9"/>
-      <c r="E992" s="11"/>
+      <c r="E992" s="12"/>
     </row>
     <row r="993" ht="30.0" customHeight="1">
       <c r="A993" s="9"/>
-      <c r="E993" s="11"/>
-    </row>
-    <row r="994" ht="30.0" customHeight="1">
-      <c r="A994" s="9"/>
-      <c r="E994" s="11"/>
+      <c r="E993" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -9698,7 +9607,7 @@
       <formula>AND(TODAY()&gt;=W$5,TODAY()&lt;X$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:AM30 AN5:CD14 K32:K33 L33:N33 O33:R35 S33:V33 G44:J62 K44:K51 L44 M44:M46 N44:R45 S44:T46 U44:AA47 AB44:AD49 AE44:AR62 L46:L49 M48:T49 L51:AD62 K53:K62">
+  <conditionalFormatting sqref="I5:AM30 AN5:CD14 K32:K33 L33:N33 O33:R35 S33:V33 G44:J61 K44:K51 L44 M44:M46 N44:R45 S44:T46 U44:AA47 AB44:AD49 AE44:AP61 AQ44:AR55 L46:L49 M48:T49 L51:R52 S51:AD61 K54:M61 O54:R61 N55:N61 AQ57:AR61">
     <cfRule type="expression" dxfId="0" priority="2">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
@@ -9761,38 +9670,38 @@
       <c r="Z1" s="3"/>
     </row>
     <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="20"/>
-      <c r="Z2" s="20"/>
+      <c r="A2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="15"/>
     </row>
     <row r="3" ht="27.0" customHeight="1">
       <c r="A3" s="21" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3" s="22"/>
       <c r="C3" s="23"/>
@@ -9911,7 +9820,7 @@
       <c r="Z6" s="3"/>
     </row>
     <row r="7" ht="204.75" customHeight="1">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="29" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="1"/>
@@ -10062,7 +9971,7 @@
     </row>
     <row r="12" ht="12.75" customHeight="1">
       <c r="A12" s="26" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -10092,7 +10001,7 @@
     </row>
     <row r="13" ht="27.75" customHeight="1">
       <c r="A13" s="32" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -10122,7 +10031,7 @@
     </row>
     <row r="14" ht="12.75" customHeight="1">
       <c r="A14" s="24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="25"/>
